--- a/LOINC/S2_Elements-LOINC_Extension_map_master.xlsx
+++ b/LOINC/S2_Elements-LOINC_Extension_map_master.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="3501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3508" uniqueCount="3508">
   <si>
     <t>SourceCode</t>
   </si>
@@ -8033,6 +8033,27 @@
     <t>/items[id0.66]</t>
   </si>
   <si>
+    <t>1896</t>
+  </si>
+  <si>
+    <t>Reference ranges</t>
+  </si>
+  <si>
+    <t>f8d749e3-728a-ef11-8872-6045bdc71c8b</t>
+  </si>
+  <si>
+    <t>Reference Range information panel</t>
+  </si>
+  <si>
+    <t>s2-EHR-Info_node.lab_analyte_quantitative.v0.0.1</t>
+  </si>
+  <si>
+    <t>id0.10</t>
+  </si>
+  <si>
+    <t>/value[id0.1]/reference_ranges[id0.10]</t>
+  </si>
+  <si>
     <t>1826</t>
   </si>
   <si>
@@ -10499,7 +10520,7 @@
     <t>Mapped Percentage</t>
   </si>
   <si>
-    <t>93.18% (834/895)</t>
+    <t>93.19% (835/896)</t>
   </si>
   <si>
     <t>Map Total Item Count</t>
@@ -10569,7 +10590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L835"/>
+  <dimension ref="A1:L836"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -35353,13 +35374,13 @@
         <v>18</v>
       </c>
       <c r="I652" s="0" t="s">
-        <v>842</v>
+        <v>2676</v>
       </c>
       <c r="J652" s="0" t="s">
-        <v>113</v>
+        <v>2677</v>
       </c>
       <c r="K652" s="0" t="s">
-        <v>29</v>
+        <v>2678</v>
       </c>
       <c r="L652" s="0" t="s">
         <v>22</v>
@@ -35367,19 +35388,19 @@
     </row>
     <row r="653">
       <c r="A653" s="0" t="s">
-        <v>2676</v>
+        <v>2679</v>
       </c>
       <c r="B653" s="0" t="s">
-        <v>2677</v>
+        <v>2680</v>
       </c>
       <c r="C653" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D653" s="0" t="s">
-        <v>934</v>
+        <v>2681</v>
       </c>
       <c r="E653" s="0" t="s">
-        <v>935</v>
+        <v>2682</v>
       </c>
       <c r="F653" s="0" t="s">
         <v>14</v>
@@ -35391,10 +35412,10 @@
         <v>18</v>
       </c>
       <c r="I653" s="0" t="s">
-        <v>937</v>
+        <v>842</v>
       </c>
       <c r="J653" s="0" t="s">
-        <v>314</v>
+        <v>113</v>
       </c>
       <c r="K653" s="0" t="s">
         <v>29</v>
@@ -35405,10 +35426,10 @@
     </row>
     <row r="654">
       <c r="A654" s="0" t="s">
-        <v>2678</v>
+        <v>2683</v>
       </c>
       <c r="B654" s="0" t="s">
-        <v>2677</v>
+        <v>2684</v>
       </c>
       <c r="C654" s="0" t="s">
         <v>14</v>
@@ -35429,7 +35450,7 @@
         <v>18</v>
       </c>
       <c r="I654" s="0" t="s">
-        <v>2679</v>
+        <v>937</v>
       </c>
       <c r="J654" s="0" t="s">
         <v>314</v>
@@ -35443,19 +35464,19 @@
     </row>
     <row r="655">
       <c r="A655" s="0" t="s">
-        <v>2680</v>
+        <v>2685</v>
       </c>
       <c r="B655" s="0" t="s">
-        <v>2681</v>
+        <v>2684</v>
       </c>
       <c r="C655" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D655" s="0" t="s">
-        <v>2682</v>
+        <v>934</v>
       </c>
       <c r="E655" s="0" t="s">
-        <v>2683</v>
+        <v>935</v>
       </c>
       <c r="F655" s="0" t="s">
         <v>14</v>
@@ -35467,13 +35488,13 @@
         <v>18</v>
       </c>
       <c r="I655" s="0" t="s">
-        <v>34</v>
+        <v>2686</v>
       </c>
       <c r="J655" s="0" t="s">
-        <v>768</v>
+        <v>314</v>
       </c>
       <c r="K655" s="0" t="s">
-        <v>769</v>
+        <v>29</v>
       </c>
       <c r="L655" s="0" t="s">
         <v>22</v>
@@ -35481,19 +35502,19 @@
     </row>
     <row r="656">
       <c r="A656" s="0" t="s">
-        <v>2684</v>
+        <v>2687</v>
       </c>
       <c r="B656" s="0" t="s">
-        <v>2681</v>
+        <v>2688</v>
       </c>
       <c r="C656" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D656" s="0" t="s">
-        <v>2682</v>
+        <v>2689</v>
       </c>
       <c r="E656" s="0" t="s">
-        <v>2683</v>
+        <v>2690</v>
       </c>
       <c r="F656" s="0" t="s">
         <v>14</v>
@@ -35505,7 +35526,7 @@
         <v>18</v>
       </c>
       <c r="I656" s="0" t="s">
-        <v>612</v>
+        <v>34</v>
       </c>
       <c r="J656" s="0" t="s">
         <v>768</v>
@@ -35519,19 +35540,19 @@
     </row>
     <row r="657">
       <c r="A657" s="0" t="s">
-        <v>2685</v>
+        <v>2691</v>
       </c>
       <c r="B657" s="0" t="s">
-        <v>2686</v>
+        <v>2688</v>
       </c>
       <c r="C657" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D657" s="0" t="s">
-        <v>2687</v>
+        <v>2689</v>
       </c>
       <c r="E657" s="0" t="s">
-        <v>2688</v>
+        <v>2690</v>
       </c>
       <c r="F657" s="0" t="s">
         <v>14</v>
@@ -35543,13 +35564,13 @@
         <v>18</v>
       </c>
       <c r="I657" s="0" t="s">
-        <v>101</v>
+        <v>612</v>
       </c>
       <c r="J657" s="0" t="s">
-        <v>986</v>
+        <v>768</v>
       </c>
       <c r="K657" s="0" t="s">
-        <v>2689</v>
+        <v>769</v>
       </c>
       <c r="L657" s="0" t="s">
         <v>22</v>
@@ -35557,19 +35578,19 @@
     </row>
     <row r="658">
       <c r="A658" s="0" t="s">
-        <v>2690</v>
+        <v>2692</v>
       </c>
       <c r="B658" s="0" t="s">
-        <v>2691</v>
+        <v>2693</v>
       </c>
       <c r="C658" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D658" s="0" t="s">
-        <v>2692</v>
+        <v>2694</v>
       </c>
       <c r="E658" s="0" t="s">
-        <v>2693</v>
+        <v>2695</v>
       </c>
       <c r="F658" s="0" t="s">
         <v>14</v>
@@ -35584,10 +35605,10 @@
         <v>101</v>
       </c>
       <c r="J658" s="0" t="s">
-        <v>99</v>
+        <v>986</v>
       </c>
       <c r="K658" s="0" t="s">
-        <v>816</v>
+        <v>2696</v>
       </c>
       <c r="L658" s="0" t="s">
         <v>22</v>
@@ -35595,19 +35616,19 @@
     </row>
     <row r="659">
       <c r="A659" s="0" t="s">
-        <v>2694</v>
+        <v>2697</v>
       </c>
       <c r="B659" s="0" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="C659" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D659" s="0" t="s">
-        <v>2696</v>
+        <v>2699</v>
       </c>
       <c r="E659" s="0" t="s">
-        <v>2697</v>
+        <v>2700</v>
       </c>
       <c r="F659" s="0" t="s">
         <v>14</v>
@@ -35619,13 +35640,13 @@
         <v>18</v>
       </c>
       <c r="I659" s="0" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="J659" s="0" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="K659" s="0" t="s">
-        <v>2698</v>
+        <v>816</v>
       </c>
       <c r="L659" s="0" t="s">
         <v>22</v>
@@ -35633,19 +35654,19 @@
     </row>
     <row r="660">
       <c r="A660" s="0" t="s">
-        <v>2699</v>
+        <v>2701</v>
       </c>
       <c r="B660" s="0" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="C660" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D660" s="0" t="s">
-        <v>2701</v>
+        <v>2703</v>
       </c>
       <c r="E660" s="0" t="s">
-        <v>2702</v>
+        <v>2704</v>
       </c>
       <c r="F660" s="0" t="s">
         <v>14</v>
@@ -35660,30 +35681,30 @@
         <v>52</v>
       </c>
       <c r="J660" s="0" t="s">
-        <v>206</v>
+        <v>46</v>
       </c>
       <c r="K660" s="0" t="s">
-        <v>2703</v>
+        <v>2705</v>
       </c>
       <c r="L660" s="0" t="s">
-        <v>530</v>
+        <v>22</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="0" t="s">
-        <v>2704</v>
+        <v>2706</v>
       </c>
       <c r="B661" s="0" t="s">
-        <v>2705</v>
+        <v>2707</v>
       </c>
       <c r="C661" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D661" s="0" t="s">
-        <v>2706</v>
+        <v>2708</v>
       </c>
       <c r="E661" s="0" t="s">
-        <v>2707</v>
+        <v>2709</v>
       </c>
       <c r="F661" s="0" t="s">
         <v>14</v>
@@ -35695,33 +35716,33 @@
         <v>18</v>
       </c>
       <c r="I661" s="0" t="s">
-        <v>205</v>
+        <v>52</v>
       </c>
       <c r="J661" s="0" t="s">
-        <v>650</v>
+        <v>206</v>
       </c>
       <c r="K661" s="0" t="s">
-        <v>2708</v>
+        <v>2710</v>
       </c>
       <c r="L661" s="0" t="s">
-        <v>22</v>
+        <v>530</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="0" t="s">
-        <v>2709</v>
+        <v>2711</v>
       </c>
       <c r="B662" s="0" t="s">
-        <v>2705</v>
+        <v>2712</v>
       </c>
       <c r="C662" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D662" s="0" t="s">
-        <v>877</v>
+        <v>2713</v>
       </c>
       <c r="E662" s="0" t="s">
-        <v>878</v>
+        <v>2714</v>
       </c>
       <c r="F662" s="0" t="s">
         <v>14</v>
@@ -35733,13 +35754,13 @@
         <v>18</v>
       </c>
       <c r="I662" s="0" t="s">
-        <v>937</v>
+        <v>205</v>
       </c>
       <c r="J662" s="0" t="s">
-        <v>834</v>
+        <v>650</v>
       </c>
       <c r="K662" s="0" t="s">
-        <v>816</v>
+        <v>2715</v>
       </c>
       <c r="L662" s="0" t="s">
         <v>22</v>
@@ -35747,19 +35768,19 @@
     </row>
     <row r="663">
       <c r="A663" s="0" t="s">
-        <v>2710</v>
+        <v>2716</v>
       </c>
       <c r="B663" s="0" t="s">
-        <v>2705</v>
+        <v>2712</v>
       </c>
       <c r="C663" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D663" s="0" t="s">
-        <v>2706</v>
+        <v>877</v>
       </c>
       <c r="E663" s="0" t="s">
-        <v>2707</v>
+        <v>878</v>
       </c>
       <c r="F663" s="0" t="s">
         <v>14</v>
@@ -35771,13 +35792,13 @@
         <v>18</v>
       </c>
       <c r="I663" s="0" t="s">
-        <v>198</v>
+        <v>937</v>
       </c>
       <c r="J663" s="0" t="s">
-        <v>2711</v>
+        <v>834</v>
       </c>
       <c r="K663" s="0" t="s">
-        <v>2712</v>
+        <v>816</v>
       </c>
       <c r="L663" s="0" t="s">
         <v>22</v>
@@ -35785,20 +35806,20 @@
     </row>
     <row r="664">
       <c r="A664" s="0" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B664" s="0" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C664" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D664" s="0" t="s">
         <v>2713</v>
       </c>
-      <c r="B664" s="0" t="s">
+      <c r="E664" s="0" t="s">
         <v>2714</v>
       </c>
-      <c r="C664" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D664" s="0" t="s">
-        <v>2715</v>
-      </c>
-      <c r="E664" s="0" t="s">
-        <v>2716</v>
-      </c>
       <c r="F664" s="0" t="s">
         <v>14</v>
       </c>
@@ -35809,13 +35830,13 @@
         <v>18</v>
       </c>
       <c r="I664" s="0" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="J664" s="0" t="s">
-        <v>340</v>
+        <v>2718</v>
       </c>
       <c r="K664" s="0" t="s">
-        <v>2717</v>
+        <v>2719</v>
       </c>
       <c r="L664" s="0" t="s">
         <v>22</v>
@@ -35823,19 +35844,19 @@
     </row>
     <row r="665">
       <c r="A665" s="0" t="s">
-        <v>2718</v>
+        <v>2720</v>
       </c>
       <c r="B665" s="0" t="s">
-        <v>2719</v>
+        <v>2721</v>
       </c>
       <c r="C665" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D665" s="0" t="s">
-        <v>2720</v>
+        <v>2722</v>
       </c>
       <c r="E665" s="0" t="s">
-        <v>2719</v>
+        <v>2723</v>
       </c>
       <c r="F665" s="0" t="s">
         <v>14</v>
@@ -35847,13 +35868,13 @@
         <v>18</v>
       </c>
       <c r="I665" s="0" t="s">
-        <v>1151</v>
+        <v>205</v>
       </c>
       <c r="J665" s="0" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="K665" s="0" t="s">
-        <v>29</v>
+        <v>2724</v>
       </c>
       <c r="L665" s="0" t="s">
         <v>22</v>
@@ -35861,19 +35882,19 @@
     </row>
     <row r="666">
       <c r="A666" s="0" t="s">
-        <v>2721</v>
+        <v>2725</v>
       </c>
       <c r="B666" s="0" t="s">
-        <v>2722</v>
+        <v>2726</v>
       </c>
       <c r="C666" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D666" s="0" t="s">
-        <v>2723</v>
+        <v>2727</v>
       </c>
       <c r="E666" s="0" t="s">
-        <v>2724</v>
+        <v>2726</v>
       </c>
       <c r="F666" s="0" t="s">
         <v>14</v>
@@ -35885,13 +35906,13 @@
         <v>18</v>
       </c>
       <c r="I666" s="0" t="s">
-        <v>273</v>
+        <v>1151</v>
       </c>
       <c r="J666" s="0" t="s">
-        <v>46</v>
+        <v>314</v>
       </c>
       <c r="K666" s="0" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L666" s="0" t="s">
         <v>22</v>
@@ -35899,19 +35920,19 @@
     </row>
     <row r="667">
       <c r="A667" s="0" t="s">
-        <v>2725</v>
+        <v>2728</v>
       </c>
       <c r="B667" s="0" t="s">
-        <v>2726</v>
+        <v>2729</v>
       </c>
       <c r="C667" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D667" s="0" t="s">
-        <v>2727</v>
+        <v>2730</v>
       </c>
       <c r="E667" s="0" t="s">
-        <v>2728</v>
+        <v>2731</v>
       </c>
       <c r="F667" s="0" t="s">
         <v>14</v>
@@ -35923,13 +35944,13 @@
         <v>18</v>
       </c>
       <c r="I667" s="0" t="s">
-        <v>1151</v>
+        <v>273</v>
       </c>
       <c r="J667" s="0" t="s">
-        <v>2729</v>
+        <v>46</v>
       </c>
       <c r="K667" s="0" t="s">
-        <v>2730</v>
+        <v>47</v>
       </c>
       <c r="L667" s="0" t="s">
         <v>22</v>
@@ -35937,19 +35958,19 @@
     </row>
     <row r="668">
       <c r="A668" s="0" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="B668" s="0" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="C668" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D668" s="0" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E668" s="0" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="F668" s="0" t="s">
         <v>14</v>
@@ -35961,13 +35982,13 @@
         <v>18</v>
       </c>
       <c r="I668" s="0" t="s">
-        <v>60</v>
+        <v>1151</v>
       </c>
       <c r="J668" s="0" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="K668" s="0" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="L668" s="0" t="s">
         <v>22</v>
@@ -35975,19 +35996,19 @@
     </row>
     <row r="669">
       <c r="A669" s="0" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="B669" s="0" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="C669" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D669" s="0" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="E669" s="0" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="F669" s="0" t="s">
         <v>14</v>
@@ -35999,13 +36020,13 @@
         <v>18</v>
       </c>
       <c r="I669" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J669" s="0" t="s">
-        <v>46</v>
+        <v>2742</v>
       </c>
       <c r="K669" s="0" t="s">
-        <v>47</v>
+        <v>2743</v>
       </c>
       <c r="L669" s="0" t="s">
         <v>22</v>
@@ -36013,19 +36034,19 @@
     </row>
     <row r="670">
       <c r="A670" s="0" t="s">
-        <v>2741</v>
+        <v>2744</v>
       </c>
       <c r="B670" s="0" t="s">
-        <v>2742</v>
+        <v>2745</v>
       </c>
       <c r="C670" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D670" s="0" t="s">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="E670" s="0" t="s">
-        <v>2744</v>
+        <v>2747</v>
       </c>
       <c r="F670" s="0" t="s">
         <v>14</v>
@@ -36037,71 +36058,71 @@
         <v>18</v>
       </c>
       <c r="I670" s="0" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="J670" s="0" t="s">
-        <v>2745</v>
+        <v>46</v>
       </c>
       <c r="K670" s="0" t="s">
-        <v>2746</v>
+        <v>47</v>
       </c>
       <c r="L670" s="0" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="0" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="B671" s="0" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="C671" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D671" s="0" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="E671" s="0" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="F671" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G671" s="0" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="H671" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I671" s="0" t="s">
-        <v>458</v>
+        <v>85</v>
       </c>
       <c r="J671" s="0" t="s">
-        <v>46</v>
+        <v>2752</v>
       </c>
       <c r="K671" s="0" t="s">
-        <v>1296</v>
+        <v>2753</v>
       </c>
       <c r="L671" s="0" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="0" t="s">
-        <v>2751</v>
+        <v>2754</v>
       </c>
       <c r="B672" s="0" t="s">
-        <v>2752</v>
+        <v>2755</v>
       </c>
       <c r="C672" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D672" s="0" t="s">
-        <v>2753</v>
+        <v>2756</v>
       </c>
       <c r="E672" s="0" t="s">
-        <v>2754</v>
+        <v>2757</v>
       </c>
       <c r="F672" s="0" t="s">
         <v>14</v>
@@ -36116,10 +36137,10 @@
         <v>458</v>
       </c>
       <c r="J672" s="0" t="s">
-        <v>522</v>
+        <v>46</v>
       </c>
       <c r="K672" s="0" t="s">
-        <v>2755</v>
+        <v>1296</v>
       </c>
       <c r="L672" s="0" t="s">
         <v>22</v>
@@ -36127,37 +36148,37 @@
     </row>
     <row r="673">
       <c r="A673" s="0" t="s">
-        <v>2756</v>
+        <v>2758</v>
       </c>
       <c r="B673" s="0" t="s">
-        <v>2757</v>
+        <v>2759</v>
       </c>
       <c r="C673" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D673" s="0" t="s">
-        <v>2758</v>
+        <v>2760</v>
       </c>
       <c r="E673" s="0" t="s">
-        <v>2757</v>
+        <v>2761</v>
       </c>
       <c r="F673" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G673" s="0" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="H673" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I673" s="0" t="s">
-        <v>188</v>
+        <v>458</v>
       </c>
       <c r="J673" s="0" t="s">
-        <v>68</v>
+        <v>522</v>
       </c>
       <c r="K673" s="0" t="s">
-        <v>69</v>
+        <v>2762</v>
       </c>
       <c r="L673" s="0" t="s">
         <v>22</v>
@@ -36165,19 +36186,19 @@
     </row>
     <row r="674">
       <c r="A674" s="0" t="s">
-        <v>2759</v>
+        <v>2763</v>
       </c>
       <c r="B674" s="0" t="s">
-        <v>2760</v>
+        <v>2764</v>
       </c>
       <c r="C674" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D674" s="0" t="s">
-        <v>2761</v>
+        <v>2765</v>
       </c>
       <c r="E674" s="0" t="s">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="F674" s="0" t="s">
         <v>14</v>
@@ -36189,13 +36210,13 @@
         <v>18</v>
       </c>
       <c r="I674" s="0" t="s">
-        <v>34</v>
+        <v>188</v>
       </c>
       <c r="J674" s="0" t="s">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="K674" s="0" t="s">
-        <v>1043</v>
+        <v>69</v>
       </c>
       <c r="L674" s="0" t="s">
         <v>22</v>
@@ -36203,19 +36224,19 @@
     </row>
     <row r="675">
       <c r="A675" s="0" t="s">
-        <v>2763</v>
+        <v>2766</v>
       </c>
       <c r="B675" s="0" t="s">
-        <v>2760</v>
+        <v>2767</v>
       </c>
       <c r="C675" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D675" s="0" t="s">
-        <v>2761</v>
+        <v>2768</v>
       </c>
       <c r="E675" s="0" t="s">
-        <v>2762</v>
+        <v>2769</v>
       </c>
       <c r="F675" s="0" t="s">
         <v>14</v>
@@ -36227,13 +36248,13 @@
         <v>18</v>
       </c>
       <c r="I675" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J675" s="0" t="s">
-        <v>2764</v>
+        <v>169</v>
       </c>
       <c r="K675" s="0" t="s">
-        <v>2765</v>
+        <v>1043</v>
       </c>
       <c r="L675" s="0" t="s">
         <v>22</v>
@@ -36241,7 +36262,7 @@
     </row>
     <row r="676">
       <c r="A676" s="0" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="B676" s="0" t="s">
         <v>2767</v>
@@ -36265,13 +36286,13 @@
         <v>18</v>
       </c>
       <c r="I676" s="0" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="J676" s="0" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="K676" s="0" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="L676" s="0" t="s">
         <v>22</v>
@@ -36279,19 +36300,19 @@
     </row>
     <row r="677">
       <c r="A677" s="0" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="B677" s="0" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="C677" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D677" s="0" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="E677" s="0" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
       <c r="F677" s="0" t="s">
         <v>14</v>
@@ -36303,13 +36324,13 @@
         <v>18</v>
       </c>
       <c r="I677" s="0" t="s">
-        <v>525</v>
+        <v>60</v>
       </c>
       <c r="J677" s="0" t="s">
-        <v>99</v>
+        <v>2777</v>
       </c>
       <c r="K677" s="0" t="s">
-        <v>516</v>
+        <v>2778</v>
       </c>
       <c r="L677" s="0" t="s">
         <v>22</v>
@@ -36317,19 +36338,19 @@
     </row>
     <row r="678">
       <c r="A678" s="0" t="s">
-        <v>2776</v>
+        <v>2779</v>
       </c>
       <c r="B678" s="0" t="s">
-        <v>2773</v>
+        <v>2780</v>
       </c>
       <c r="C678" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D678" s="0" t="s">
-        <v>2774</v>
+        <v>2781</v>
       </c>
       <c r="E678" s="0" t="s">
-        <v>2775</v>
+        <v>2782</v>
       </c>
       <c r="F678" s="0" t="s">
         <v>14</v>
@@ -36347,7 +36368,7 @@
         <v>99</v>
       </c>
       <c r="K678" s="0" t="s">
-        <v>1553</v>
+        <v>516</v>
       </c>
       <c r="L678" s="0" t="s">
         <v>22</v>
@@ -36355,19 +36376,19 @@
     </row>
     <row r="679">
       <c r="A679" s="0" t="s">
-        <v>2777</v>
+        <v>2783</v>
       </c>
       <c r="B679" s="0" t="s">
-        <v>2773</v>
+        <v>2780</v>
       </c>
       <c r="C679" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D679" s="0" t="s">
-        <v>2774</v>
+        <v>2781</v>
       </c>
       <c r="E679" s="0" t="s">
-        <v>2775</v>
+        <v>2782</v>
       </c>
       <c r="F679" s="0" t="s">
         <v>14</v>
@@ -36382,10 +36403,10 @@
         <v>525</v>
       </c>
       <c r="J679" s="0" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="K679" s="0" t="s">
-        <v>29</v>
+        <v>1553</v>
       </c>
       <c r="L679" s="0" t="s">
         <v>22</v>
@@ -36393,19 +36414,19 @@
     </row>
     <row r="680">
       <c r="A680" s="0" t="s">
-        <v>2778</v>
+        <v>2784</v>
       </c>
       <c r="B680" s="0" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="C680" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D680" s="0" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="E680" s="0" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="F680" s="0" t="s">
         <v>14</v>
@@ -36417,13 +36438,13 @@
         <v>18</v>
       </c>
       <c r="I680" s="0" t="s">
-        <v>55</v>
+        <v>525</v>
       </c>
       <c r="J680" s="0" t="s">
-        <v>1211</v>
+        <v>113</v>
       </c>
       <c r="K680" s="0" t="s">
-        <v>2782</v>
+        <v>29</v>
       </c>
       <c r="L680" s="0" t="s">
         <v>22</v>
@@ -36431,19 +36452,19 @@
     </row>
     <row r="681">
       <c r="A681" s="0" t="s">
-        <v>2783</v>
+        <v>2785</v>
       </c>
       <c r="B681" s="0" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
       <c r="C681" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D681" s="0" t="s">
-        <v>2785</v>
+        <v>2787</v>
       </c>
       <c r="E681" s="0" t="s">
-        <v>2786</v>
+        <v>2788</v>
       </c>
       <c r="F681" s="0" t="s">
         <v>14</v>
@@ -36458,10 +36479,10 @@
         <v>55</v>
       </c>
       <c r="J681" s="0" t="s">
-        <v>2101</v>
+        <v>1211</v>
       </c>
       <c r="K681" s="0" t="s">
-        <v>2787</v>
+        <v>2789</v>
       </c>
       <c r="L681" s="0" t="s">
         <v>22</v>
@@ -36469,37 +36490,37 @@
     </row>
     <row r="682">
       <c r="A682" s="0" t="s">
-        <v>2788</v>
+        <v>2790</v>
       </c>
       <c r="B682" s="0" t="s">
-        <v>2789</v>
+        <v>2791</v>
       </c>
       <c r="C682" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D682" s="0" t="s">
-        <v>2790</v>
+        <v>2792</v>
       </c>
       <c r="E682" s="0" t="s">
-        <v>2791</v>
+        <v>2793</v>
       </c>
       <c r="F682" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G682" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H682" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I682" s="0" t="s">
-        <v>1706</v>
+        <v>55</v>
       </c>
       <c r="J682" s="0" t="s">
-        <v>46</v>
+        <v>2101</v>
       </c>
       <c r="K682" s="0" t="s">
-        <v>47</v>
+        <v>2794</v>
       </c>
       <c r="L682" s="0" t="s">
         <v>22</v>
@@ -36507,19 +36528,19 @@
     </row>
     <row r="683">
       <c r="A683" s="0" t="s">
-        <v>2792</v>
+        <v>2795</v>
       </c>
       <c r="B683" s="0" t="s">
-        <v>2793</v>
+        <v>2796</v>
       </c>
       <c r="C683" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D683" s="0" t="s">
-        <v>2794</v>
+        <v>2797</v>
       </c>
       <c r="E683" s="0" t="s">
-        <v>2795</v>
+        <v>2798</v>
       </c>
       <c r="F683" s="0" t="s">
         <v>14</v>
@@ -36534,10 +36555,10 @@
         <v>1706</v>
       </c>
       <c r="J683" s="0" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="K683" s="0" t="s">
-        <v>816</v>
+        <v>47</v>
       </c>
       <c r="L683" s="0" t="s">
         <v>22</v>
@@ -36545,37 +36566,37 @@
     </row>
     <row r="684">
       <c r="A684" s="0" t="s">
-        <v>2796</v>
+        <v>2799</v>
       </c>
       <c r="B684" s="0" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="C684" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D684" s="0" t="s">
-        <v>2798</v>
+        <v>2801</v>
       </c>
       <c r="E684" s="0" t="s">
-        <v>2799</v>
+        <v>2802</v>
       </c>
       <c r="F684" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G684" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H684" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I684" s="0" t="s">
-        <v>85</v>
+        <v>1706</v>
       </c>
       <c r="J684" s="0" t="s">
-        <v>2800</v>
+        <v>99</v>
       </c>
       <c r="K684" s="0" t="s">
-        <v>2801</v>
+        <v>816</v>
       </c>
       <c r="L684" s="0" t="s">
         <v>22</v>
@@ -36583,37 +36604,37 @@
     </row>
     <row r="685">
       <c r="A685" s="0" t="s">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="B685" s="0" t="s">
-        <v>2803</v>
+        <v>2804</v>
       </c>
       <c r="C685" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D685" s="0" t="s">
-        <v>2804</v>
+        <v>2805</v>
       </c>
       <c r="E685" s="0" t="s">
-        <v>2803</v>
+        <v>2806</v>
       </c>
       <c r="F685" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G685" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H685" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I685" s="0" t="s">
-        <v>2805</v>
+        <v>85</v>
       </c>
       <c r="J685" s="0" t="s">
-        <v>28</v>
+        <v>2807</v>
       </c>
       <c r="K685" s="0" t="s">
-        <v>29</v>
+        <v>2808</v>
       </c>
       <c r="L685" s="0" t="s">
         <v>22</v>
@@ -36621,37 +36642,37 @@
     </row>
     <row r="686">
       <c r="A686" s="0" t="s">
-        <v>2806</v>
+        <v>2809</v>
       </c>
       <c r="B686" s="0" t="s">
-        <v>2807</v>
+        <v>2810</v>
       </c>
       <c r="C686" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D686" s="0" t="s">
-        <v>1943</v>
+        <v>2811</v>
       </c>
       <c r="E686" s="0" t="s">
-        <v>1944</v>
+        <v>2810</v>
       </c>
       <c r="F686" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G686" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H686" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I686" s="0" t="s">
-        <v>255</v>
+        <v>2812</v>
       </c>
       <c r="J686" s="0" t="s">
-        <v>1945</v>
+        <v>28</v>
       </c>
       <c r="K686" s="0" t="s">
-        <v>1946</v>
+        <v>29</v>
       </c>
       <c r="L686" s="0" t="s">
         <v>22</v>
@@ -36659,19 +36680,19 @@
     </row>
     <row r="687">
       <c r="A687" s="0" t="s">
-        <v>2808</v>
+        <v>2813</v>
       </c>
       <c r="B687" s="0" t="s">
-        <v>2809</v>
+        <v>2814</v>
       </c>
       <c r="C687" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D687" s="0" t="s">
-        <v>2810</v>
+        <v>1943</v>
       </c>
       <c r="E687" s="0" t="s">
-        <v>2811</v>
+        <v>1944</v>
       </c>
       <c r="F687" s="0" t="s">
         <v>14</v>
@@ -36683,13 +36704,13 @@
         <v>18</v>
       </c>
       <c r="I687" s="0" t="s">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="J687" s="0" t="s">
-        <v>2812</v>
+        <v>1945</v>
       </c>
       <c r="K687" s="0" t="s">
-        <v>2813</v>
+        <v>1946</v>
       </c>
       <c r="L687" s="0" t="s">
         <v>22</v>
@@ -36697,19 +36718,19 @@
     </row>
     <row r="688">
       <c r="A688" s="0" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="B688" s="0" t="s">
-        <v>2809</v>
+        <v>2816</v>
       </c>
       <c r="C688" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D688" s="0" t="s">
-        <v>2810</v>
+        <v>2817</v>
       </c>
       <c r="E688" s="0" t="s">
-        <v>2811</v>
+        <v>2818</v>
       </c>
       <c r="F688" s="0" t="s">
         <v>14</v>
@@ -36721,13 +36742,13 @@
         <v>18</v>
       </c>
       <c r="I688" s="0" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="J688" s="0" t="s">
-        <v>2815</v>
+        <v>2819</v>
       </c>
       <c r="K688" s="0" t="s">
-        <v>2816</v>
+        <v>2820</v>
       </c>
       <c r="L688" s="0" t="s">
         <v>22</v>
@@ -36735,20 +36756,20 @@
     </row>
     <row r="689">
       <c r="A689" s="0" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B689" s="0" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C689" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D689" s="0" t="s">
         <v>2817</v>
       </c>
-      <c r="B689" s="0" t="s">
+      <c r="E689" s="0" t="s">
         <v>2818</v>
       </c>
-      <c r="C689" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D689" s="0" t="s">
-        <v>2819</v>
-      </c>
-      <c r="E689" s="0" t="s">
-        <v>2820</v>
-      </c>
       <c r="F689" s="0" t="s">
         <v>14</v>
       </c>
@@ -36759,13 +36780,13 @@
         <v>18</v>
       </c>
       <c r="I689" s="0" t="s">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="J689" s="0" t="s">
-        <v>964</v>
+        <v>2822</v>
       </c>
       <c r="K689" s="0" t="s">
-        <v>965</v>
+        <v>2823</v>
       </c>
       <c r="L689" s="0" t="s">
         <v>22</v>
@@ -36773,19 +36794,19 @@
     </row>
     <row r="690">
       <c r="A690" s="0" t="s">
-        <v>2821</v>
+        <v>2824</v>
       </c>
       <c r="B690" s="0" t="s">
-        <v>2822</v>
+        <v>2825</v>
       </c>
       <c r="C690" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D690" s="0" t="s">
-        <v>2823</v>
+        <v>2826</v>
       </c>
       <c r="E690" s="0" t="s">
-        <v>2824</v>
+        <v>2827</v>
       </c>
       <c r="F690" s="0" t="s">
         <v>14</v>
@@ -36797,13 +36818,13 @@
         <v>18</v>
       </c>
       <c r="I690" s="0" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="J690" s="0" t="s">
-        <v>1247</v>
+        <v>964</v>
       </c>
       <c r="K690" s="0" t="s">
-        <v>2825</v>
+        <v>965</v>
       </c>
       <c r="L690" s="0" t="s">
         <v>22</v>
@@ -36811,19 +36832,19 @@
     </row>
     <row r="691">
       <c r="A691" s="0" t="s">
-        <v>2826</v>
+        <v>2828</v>
       </c>
       <c r="B691" s="0" t="s">
-        <v>2827</v>
+        <v>2829</v>
       </c>
       <c r="C691" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D691" s="0" t="s">
-        <v>2828</v>
+        <v>2830</v>
       </c>
       <c r="E691" s="0" t="s">
-        <v>2827</v>
+        <v>2831</v>
       </c>
       <c r="F691" s="0" t="s">
         <v>14</v>
@@ -36835,13 +36856,13 @@
         <v>18</v>
       </c>
       <c r="I691" s="0" t="s">
-        <v>1145</v>
+        <v>78</v>
       </c>
       <c r="J691" s="0" t="s">
-        <v>212</v>
+        <v>1247</v>
       </c>
       <c r="K691" s="0" t="s">
-        <v>391</v>
+        <v>2832</v>
       </c>
       <c r="L691" s="0" t="s">
         <v>22</v>
@@ -36849,19 +36870,19 @@
     </row>
     <row r="692">
       <c r="A692" s="0" t="s">
-        <v>2829</v>
+        <v>2833</v>
       </c>
       <c r="B692" s="0" t="s">
-        <v>2830</v>
+        <v>2834</v>
       </c>
       <c r="C692" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D692" s="0" t="s">
-        <v>2831</v>
+        <v>2835</v>
       </c>
       <c r="E692" s="0" t="s">
-        <v>2832</v>
+        <v>2834</v>
       </c>
       <c r="F692" s="0" t="s">
         <v>14</v>
@@ -36873,13 +36894,13 @@
         <v>18</v>
       </c>
       <c r="I692" s="0" t="s">
-        <v>767</v>
+        <v>1145</v>
       </c>
       <c r="J692" s="0" t="s">
-        <v>522</v>
+        <v>212</v>
       </c>
       <c r="K692" s="0" t="s">
-        <v>828</v>
+        <v>391</v>
       </c>
       <c r="L692" s="0" t="s">
         <v>22</v>
@@ -36887,19 +36908,19 @@
     </row>
     <row r="693">
       <c r="A693" s="0" t="s">
-        <v>2833</v>
+        <v>2836</v>
       </c>
       <c r="B693" s="0" t="s">
-        <v>2834</v>
+        <v>2837</v>
       </c>
       <c r="C693" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D693" s="0" t="s">
-        <v>2835</v>
+        <v>2838</v>
       </c>
       <c r="E693" s="0" t="s">
-        <v>2834</v>
+        <v>2839</v>
       </c>
       <c r="F693" s="0" t="s">
         <v>14</v>
@@ -36911,13 +36932,13 @@
         <v>18</v>
       </c>
       <c r="I693" s="0" t="s">
-        <v>34</v>
+        <v>767</v>
       </c>
       <c r="J693" s="0" t="s">
-        <v>206</v>
+        <v>522</v>
       </c>
       <c r="K693" s="0" t="s">
-        <v>356</v>
+        <v>828</v>
       </c>
       <c r="L693" s="0" t="s">
         <v>22</v>
@@ -36925,19 +36946,19 @@
     </row>
     <row r="694">
       <c r="A694" s="0" t="s">
-        <v>2836</v>
+        <v>2840</v>
       </c>
       <c r="B694" s="0" t="s">
-        <v>2834</v>
+        <v>2841</v>
       </c>
       <c r="C694" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D694" s="0" t="s">
-        <v>2835</v>
+        <v>2842</v>
       </c>
       <c r="E694" s="0" t="s">
-        <v>2834</v>
+        <v>2841</v>
       </c>
       <c r="F694" s="0" t="s">
         <v>14</v>
@@ -36949,13 +36970,13 @@
         <v>18</v>
       </c>
       <c r="I694" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J694" s="0" t="s">
-        <v>2837</v>
+        <v>206</v>
       </c>
       <c r="K694" s="0" t="s">
-        <v>2838</v>
+        <v>356</v>
       </c>
       <c r="L694" s="0" t="s">
         <v>22</v>
@@ -36963,20 +36984,20 @@
     </row>
     <row r="695">
       <c r="A695" s="0" t="s">
-        <v>2839</v>
+        <v>2843</v>
       </c>
       <c r="B695" s="0" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
       <c r="C695" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D695" s="0" t="s">
+        <v>2842</v>
+      </c>
+      <c r="E695" s="0" t="s">
         <v>2841</v>
       </c>
-      <c r="E695" s="0" t="s">
-        <v>2842</v>
-      </c>
       <c r="F695" s="0" t="s">
         <v>14</v>
       </c>
@@ -36987,13 +37008,13 @@
         <v>18</v>
       </c>
       <c r="I695" s="0" t="s">
-        <v>1145</v>
+        <v>38</v>
       </c>
       <c r="J695" s="0" t="s">
-        <v>53</v>
+        <v>2844</v>
       </c>
       <c r="K695" s="0" t="s">
-        <v>2843</v>
+        <v>2845</v>
       </c>
       <c r="L695" s="0" t="s">
         <v>22</v>
@@ -37001,19 +37022,19 @@
     </row>
     <row r="696">
       <c r="A696" s="0" t="s">
-        <v>2844</v>
+        <v>2846</v>
       </c>
       <c r="B696" s="0" t="s">
-        <v>2845</v>
+        <v>2847</v>
       </c>
       <c r="C696" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D696" s="0" t="s">
-        <v>2846</v>
+        <v>2848</v>
       </c>
       <c r="E696" s="0" t="s">
-        <v>2847</v>
+        <v>2849</v>
       </c>
       <c r="F696" s="0" t="s">
         <v>14</v>
@@ -37025,13 +37046,13 @@
         <v>18</v>
       </c>
       <c r="I696" s="0" t="s">
-        <v>805</v>
+        <v>1145</v>
       </c>
       <c r="J696" s="0" t="s">
         <v>53</v>
       </c>
       <c r="K696" s="0" t="s">
-        <v>2848</v>
+        <v>2850</v>
       </c>
       <c r="L696" s="0" t="s">
         <v>22</v>
@@ -37039,19 +37060,19 @@
     </row>
     <row r="697">
       <c r="A697" s="0" t="s">
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="B697" s="0" t="s">
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="C697" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D697" s="0" t="s">
-        <v>2851</v>
+        <v>2853</v>
       </c>
       <c r="E697" s="0" t="s">
-        <v>2852</v>
+        <v>2854</v>
       </c>
       <c r="F697" s="0" t="s">
         <v>14</v>
@@ -37063,13 +37084,13 @@
         <v>18</v>
       </c>
       <c r="I697" s="0" t="s">
-        <v>55</v>
+        <v>805</v>
       </c>
       <c r="J697" s="0" t="s">
-        <v>330</v>
+        <v>53</v>
       </c>
       <c r="K697" s="0" t="s">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c r="L697" s="0" t="s">
         <v>22</v>
@@ -37077,19 +37098,19 @@
     </row>
     <row r="698">
       <c r="A698" s="0" t="s">
-        <v>2854</v>
+        <v>2856</v>
       </c>
       <c r="B698" s="0" t="s">
-        <v>2855</v>
+        <v>2857</v>
       </c>
       <c r="C698" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D698" s="0" t="s">
-        <v>2856</v>
+        <v>2858</v>
       </c>
       <c r="E698" s="0" t="s">
-        <v>2857</v>
+        <v>2859</v>
       </c>
       <c r="F698" s="0" t="s">
         <v>14</v>
@@ -37101,13 +37122,13 @@
         <v>18</v>
       </c>
       <c r="I698" s="0" t="s">
-        <v>416</v>
+        <v>55</v>
       </c>
       <c r="J698" s="0" t="s">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="K698" s="0" t="s">
-        <v>2858</v>
+        <v>2860</v>
       </c>
       <c r="L698" s="0" t="s">
         <v>22</v>
@@ -37115,19 +37136,19 @@
     </row>
     <row r="699">
       <c r="A699" s="0" t="s">
-        <v>2859</v>
+        <v>2861</v>
       </c>
       <c r="B699" s="0" t="s">
-        <v>2860</v>
+        <v>2862</v>
       </c>
       <c r="C699" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D699" s="0" t="s">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="E699" s="0" t="s">
-        <v>2862</v>
+        <v>2864</v>
       </c>
       <c r="F699" s="0" t="s">
         <v>14</v>
@@ -37139,13 +37160,13 @@
         <v>18</v>
       </c>
       <c r="I699" s="0" t="s">
-        <v>530</v>
+        <v>416</v>
       </c>
       <c r="J699" s="0" t="s">
-        <v>986</v>
+        <v>230</v>
       </c>
       <c r="K699" s="0" t="s">
-        <v>1128</v>
+        <v>2865</v>
       </c>
       <c r="L699" s="0" t="s">
         <v>22</v>
@@ -37153,19 +37174,19 @@
     </row>
     <row r="700">
       <c r="A700" s="0" t="s">
-        <v>2863</v>
+        <v>2866</v>
       </c>
       <c r="B700" s="0" t="s">
-        <v>2864</v>
+        <v>2867</v>
       </c>
       <c r="C700" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D700" s="0" t="s">
-        <v>2865</v>
+        <v>2868</v>
       </c>
       <c r="E700" s="0" t="s">
-        <v>2866</v>
+        <v>2869</v>
       </c>
       <c r="F700" s="0" t="s">
         <v>14</v>
@@ -37177,13 +37198,13 @@
         <v>18</v>
       </c>
       <c r="I700" s="0" t="s">
-        <v>188</v>
+        <v>530</v>
       </c>
       <c r="J700" s="0" t="s">
-        <v>212</v>
+        <v>986</v>
       </c>
       <c r="K700" s="0" t="s">
-        <v>391</v>
+        <v>1128</v>
       </c>
       <c r="L700" s="0" t="s">
         <v>22</v>
@@ -37191,19 +37212,19 @@
     </row>
     <row r="701">
       <c r="A701" s="0" t="s">
-        <v>2867</v>
+        <v>2870</v>
       </c>
       <c r="B701" s="0" t="s">
-        <v>2868</v>
+        <v>2871</v>
       </c>
       <c r="C701" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D701" s="0" t="s">
-        <v>463</v>
+        <v>2872</v>
       </c>
       <c r="E701" s="0" t="s">
-        <v>464</v>
+        <v>2873</v>
       </c>
       <c r="F701" s="0" t="s">
         <v>14</v>
@@ -37215,13 +37236,13 @@
         <v>18</v>
       </c>
       <c r="I701" s="0" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="J701" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K701" s="0" t="s">
-        <v>2869</v>
+        <v>391</v>
       </c>
       <c r="L701" s="0" t="s">
         <v>22</v>
@@ -37229,19 +37250,19 @@
     </row>
     <row r="702">
       <c r="A702" s="0" t="s">
-        <v>2870</v>
+        <v>2874</v>
       </c>
       <c r="B702" s="0" t="s">
-        <v>2871</v>
+        <v>2875</v>
       </c>
       <c r="C702" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D702" s="0" t="s">
-        <v>1986</v>
+        <v>463</v>
       </c>
       <c r="E702" s="0" t="s">
-        <v>1987</v>
+        <v>464</v>
       </c>
       <c r="F702" s="0" t="s">
         <v>14</v>
@@ -37253,13 +37274,13 @@
         <v>18</v>
       </c>
       <c r="I702" s="0" t="s">
-        <v>370</v>
+        <v>168</v>
       </c>
       <c r="J702" s="0" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="K702" s="0" t="s">
-        <v>29</v>
+        <v>2876</v>
       </c>
       <c r="L702" s="0" t="s">
         <v>22</v>
@@ -37267,19 +37288,19 @@
     </row>
     <row r="703">
       <c r="A703" s="0" t="s">
-        <v>2872</v>
+        <v>2877</v>
       </c>
       <c r="B703" s="0" t="s">
-        <v>2873</v>
+        <v>2878</v>
       </c>
       <c r="C703" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D703" s="0" t="s">
-        <v>2874</v>
+        <v>1986</v>
       </c>
       <c r="E703" s="0" t="s">
-        <v>2873</v>
+        <v>1987</v>
       </c>
       <c r="F703" s="0" t="s">
         <v>14</v>
@@ -37291,13 +37312,13 @@
         <v>18</v>
       </c>
       <c r="I703" s="0" t="s">
-        <v>19</v>
+        <v>370</v>
       </c>
       <c r="J703" s="0" t="s">
-        <v>2875</v>
+        <v>113</v>
       </c>
       <c r="K703" s="0" t="s">
-        <v>2876</v>
+        <v>29</v>
       </c>
       <c r="L703" s="0" t="s">
         <v>22</v>
@@ -37305,19 +37326,19 @@
     </row>
     <row r="704">
       <c r="A704" s="0" t="s">
-        <v>2877</v>
+        <v>2879</v>
       </c>
       <c r="B704" s="0" t="s">
-        <v>2878</v>
+        <v>2880</v>
       </c>
       <c r="C704" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D704" s="0" t="s">
-        <v>2874</v>
+        <v>2881</v>
       </c>
       <c r="E704" s="0" t="s">
-        <v>2873</v>
+        <v>2880</v>
       </c>
       <c r="F704" s="0" t="s">
         <v>14</v>
@@ -37329,13 +37350,13 @@
         <v>18</v>
       </c>
       <c r="I704" s="0" t="s">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="J704" s="0" t="s">
-        <v>2879</v>
+        <v>2882</v>
       </c>
       <c r="K704" s="0" t="s">
-        <v>2880</v>
+        <v>2883</v>
       </c>
       <c r="L704" s="0" t="s">
         <v>22</v>
@@ -37343,37 +37364,37 @@
     </row>
     <row r="705">
       <c r="A705" s="0" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B705" s="0" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C705" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D705" s="0" t="s">
         <v>2881</v>
       </c>
-      <c r="B705" s="0" t="s">
-        <v>2882</v>
-      </c>
-      <c r="C705" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D705" s="0" t="s">
-        <v>2883</v>
-      </c>
       <c r="E705" s="0" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="F705" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G705" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H705" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I705" s="0" t="s">
-        <v>2884</v>
+        <v>349</v>
       </c>
       <c r="J705" s="0" t="s">
-        <v>28</v>
+        <v>2886</v>
       </c>
       <c r="K705" s="0" t="s">
-        <v>29</v>
+        <v>2887</v>
       </c>
       <c r="L705" s="0" t="s">
         <v>22</v>
@@ -37381,37 +37402,37 @@
     </row>
     <row r="706">
       <c r="A706" s="0" t="s">
-        <v>2885</v>
+        <v>2888</v>
       </c>
       <c r="B706" s="0" t="s">
-        <v>2886</v>
+        <v>2889</v>
       </c>
       <c r="C706" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D706" s="0" t="s">
-        <v>2887</v>
+        <v>2890</v>
       </c>
       <c r="E706" s="0" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="F706" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G706" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H706" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I706" s="0" t="s">
-        <v>416</v>
+        <v>2891</v>
       </c>
       <c r="J706" s="0" t="s">
-        <v>330</v>
+        <v>28</v>
       </c>
       <c r="K706" s="0" t="s">
-        <v>2889</v>
+        <v>29</v>
       </c>
       <c r="L706" s="0" t="s">
         <v>22</v>
@@ -37419,19 +37440,19 @@
     </row>
     <row r="707">
       <c r="A707" s="0" t="s">
-        <v>2890</v>
+        <v>2892</v>
       </c>
       <c r="B707" s="0" t="s">
-        <v>2886</v>
+        <v>2893</v>
       </c>
       <c r="C707" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D707" s="0" t="s">
-        <v>2887</v>
+        <v>2894</v>
       </c>
       <c r="E707" s="0" t="s">
-        <v>2888</v>
+        <v>2895</v>
       </c>
       <c r="F707" s="0" t="s">
         <v>14</v>
@@ -37443,13 +37464,13 @@
         <v>18</v>
       </c>
       <c r="I707" s="0" t="s">
-        <v>612</v>
+        <v>416</v>
       </c>
       <c r="J707" s="0" t="s">
         <v>330</v>
       </c>
       <c r="K707" s="0" t="s">
-        <v>331</v>
+        <v>2896</v>
       </c>
       <c r="L707" s="0" t="s">
         <v>22</v>
@@ -37457,19 +37478,19 @@
     </row>
     <row r="708">
       <c r="A708" s="0" t="s">
-        <v>2891</v>
+        <v>2897</v>
       </c>
       <c r="B708" s="0" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="C708" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D708" s="0" t="s">
-        <v>129</v>
+        <v>2894</v>
       </c>
       <c r="E708" s="0" t="s">
-        <v>130</v>
+        <v>2895</v>
       </c>
       <c r="F708" s="0" t="s">
         <v>14</v>
@@ -37481,33 +37502,33 @@
         <v>18</v>
       </c>
       <c r="I708" s="0" t="s">
-        <v>83</v>
+        <v>612</v>
       </c>
       <c r="J708" s="0" t="s">
-        <v>206</v>
+        <v>330</v>
       </c>
       <c r="K708" s="0" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="L708" s="0" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="0" t="s">
-        <v>2893</v>
+        <v>2898</v>
       </c>
       <c r="B709" s="0" t="s">
-        <v>2894</v>
+        <v>2899</v>
       </c>
       <c r="C709" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D709" s="0" t="s">
-        <v>2895</v>
+        <v>129</v>
       </c>
       <c r="E709" s="0" t="s">
-        <v>2896</v>
+        <v>130</v>
       </c>
       <c r="F709" s="0" t="s">
         <v>14</v>
@@ -37519,33 +37540,33 @@
         <v>18</v>
       </c>
       <c r="I709" s="0" t="s">
-        <v>805</v>
+        <v>83</v>
       </c>
       <c r="J709" s="0" t="s">
-        <v>2897</v>
+        <v>206</v>
       </c>
       <c r="K709" s="0" t="s">
-        <v>2898</v>
+        <v>356</v>
       </c>
       <c r="L709" s="0" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="0" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="B710" s="0" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
       <c r="C710" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D710" s="0" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="E710" s="0" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="F710" s="0" t="s">
         <v>14</v>
@@ -37557,33 +37578,33 @@
         <v>18</v>
       </c>
       <c r="I710" s="0" t="s">
-        <v>45</v>
+        <v>805</v>
       </c>
       <c r="J710" s="0" t="s">
-        <v>61</v>
+        <v>2904</v>
       </c>
       <c r="K710" s="0" t="s">
-        <v>2903</v>
+        <v>2905</v>
       </c>
       <c r="L710" s="0" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="0" t="s">
-        <v>2904</v>
+        <v>2906</v>
       </c>
       <c r="B711" s="0" t="s">
-        <v>2905</v>
+        <v>2907</v>
       </c>
       <c r="C711" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D711" s="0" t="s">
-        <v>2906</v>
+        <v>2908</v>
       </c>
       <c r="E711" s="0" t="s">
-        <v>2907</v>
+        <v>2909</v>
       </c>
       <c r="F711" s="0" t="s">
         <v>14</v>
@@ -37595,33 +37616,33 @@
         <v>18</v>
       </c>
       <c r="I711" s="0" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="J711" s="0" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="K711" s="0" t="s">
-        <v>274</v>
+        <v>2910</v>
       </c>
       <c r="L711" s="0" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="0" t="s">
-        <v>2908</v>
+        <v>2911</v>
       </c>
       <c r="B712" s="0" t="s">
-        <v>2909</v>
+        <v>2912</v>
       </c>
       <c r="C712" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D712" s="0" t="s">
-        <v>2910</v>
+        <v>2913</v>
       </c>
       <c r="E712" s="0" t="s">
-        <v>2911</v>
+        <v>2914</v>
       </c>
       <c r="F712" s="0" t="s">
         <v>14</v>
@@ -37636,10 +37657,10 @@
         <v>67</v>
       </c>
       <c r="J712" s="0" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="K712" s="0" t="s">
-        <v>816</v>
+        <v>274</v>
       </c>
       <c r="L712" s="0" t="s">
         <v>22</v>
@@ -37647,19 +37668,19 @@
     </row>
     <row r="713">
       <c r="A713" s="0" t="s">
-        <v>2912</v>
+        <v>2915</v>
       </c>
       <c r="B713" s="0" t="s">
-        <v>2913</v>
+        <v>2916</v>
       </c>
       <c r="C713" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D713" s="0" t="s">
-        <v>2914</v>
+        <v>2917</v>
       </c>
       <c r="E713" s="0" t="s">
-        <v>2915</v>
+        <v>2918</v>
       </c>
       <c r="F713" s="0" t="s">
         <v>14</v>
@@ -37674,10 +37695,10 @@
         <v>67</v>
       </c>
       <c r="J713" s="0" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="K713" s="0" t="s">
-        <v>62</v>
+        <v>816</v>
       </c>
       <c r="L713" s="0" t="s">
         <v>22</v>
@@ -37685,19 +37706,19 @@
     </row>
     <row r="714">
       <c r="A714" s="0" t="s">
-        <v>2916</v>
+        <v>2919</v>
       </c>
       <c r="B714" s="0" t="s">
-        <v>2917</v>
+        <v>2920</v>
       </c>
       <c r="C714" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D714" s="0" t="s">
-        <v>72</v>
+        <v>2921</v>
       </c>
       <c r="E714" s="0" t="s">
-        <v>73</v>
+        <v>2922</v>
       </c>
       <c r="F714" s="0" t="s">
         <v>14</v>
@@ -37709,13 +37730,13 @@
         <v>18</v>
       </c>
       <c r="I714" s="0" t="s">
-        <v>530</v>
+        <v>67</v>
       </c>
       <c r="J714" s="0" t="s">
-        <v>2262</v>
+        <v>61</v>
       </c>
       <c r="K714" s="0" t="s">
-        <v>2918</v>
+        <v>62</v>
       </c>
       <c r="L714" s="0" t="s">
         <v>22</v>
@@ -37723,19 +37744,19 @@
     </row>
     <row r="715">
       <c r="A715" s="0" t="s">
-        <v>2919</v>
+        <v>2923</v>
       </c>
       <c r="B715" s="0" t="s">
-        <v>2920</v>
+        <v>2924</v>
       </c>
       <c r="C715" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D715" s="0" t="s">
-        <v>2921</v>
+        <v>72</v>
       </c>
       <c r="E715" s="0" t="s">
-        <v>2922</v>
+        <v>73</v>
       </c>
       <c r="F715" s="0" t="s">
         <v>14</v>
@@ -37747,13 +37768,13 @@
         <v>18</v>
       </c>
       <c r="I715" s="0" t="s">
-        <v>78</v>
+        <v>530</v>
       </c>
       <c r="J715" s="0" t="s">
-        <v>2923</v>
+        <v>2262</v>
       </c>
       <c r="K715" s="0" t="s">
-        <v>2924</v>
+        <v>2925</v>
       </c>
       <c r="L715" s="0" t="s">
         <v>22</v>
@@ -37761,19 +37782,19 @@
     </row>
     <row r="716">
       <c r="A716" s="0" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="B716" s="0" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="C716" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D716" s="0" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="E716" s="0" t="s">
-        <v>2928</v>
+        <v>2929</v>
       </c>
       <c r="F716" s="0" t="s">
         <v>14</v>
@@ -37785,13 +37806,13 @@
         <v>18</v>
       </c>
       <c r="I716" s="0" t="s">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="J716" s="0" t="s">
-        <v>2030</v>
+        <v>2930</v>
       </c>
       <c r="K716" s="0" t="s">
-        <v>2929</v>
+        <v>2931</v>
       </c>
       <c r="L716" s="0" t="s">
         <v>22</v>
@@ -37799,19 +37820,19 @@
     </row>
     <row r="717">
       <c r="A717" s="0" t="s">
-        <v>2930</v>
+        <v>2932</v>
       </c>
       <c r="B717" s="0" t="s">
-        <v>2926</v>
+        <v>2933</v>
       </c>
       <c r="C717" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D717" s="0" t="s">
-        <v>2931</v>
+        <v>2934</v>
       </c>
       <c r="E717" s="0" t="s">
-        <v>2932</v>
+        <v>2935</v>
       </c>
       <c r="F717" s="0" t="s">
         <v>14</v>
@@ -37823,13 +37844,13 @@
         <v>18</v>
       </c>
       <c r="I717" s="0" t="s">
-        <v>67</v>
+        <v>323</v>
       </c>
       <c r="J717" s="0" t="s">
-        <v>417</v>
+        <v>2030</v>
       </c>
       <c r="K717" s="0" t="s">
-        <v>1809</v>
+        <v>2936</v>
       </c>
       <c r="L717" s="0" t="s">
         <v>22</v>
@@ -37837,19 +37858,19 @@
     </row>
     <row r="718">
       <c r="A718" s="0" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B718" s="0" t="s">
         <v>2933</v>
       </c>
-      <c r="B718" s="0" t="s">
-        <v>2934</v>
-      </c>
       <c r="C718" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D718" s="0" t="s">
-        <v>1344</v>
+        <v>2938</v>
       </c>
       <c r="E718" s="0" t="s">
-        <v>1345</v>
+        <v>2939</v>
       </c>
       <c r="F718" s="0" t="s">
         <v>14</v>
@@ -37861,13 +37882,13 @@
         <v>18</v>
       </c>
       <c r="I718" s="0" t="s">
-        <v>323</v>
+        <v>67</v>
       </c>
       <c r="J718" s="0" t="s">
-        <v>499</v>
+        <v>417</v>
       </c>
       <c r="K718" s="0" t="s">
-        <v>2935</v>
+        <v>1809</v>
       </c>
       <c r="L718" s="0" t="s">
         <v>22</v>
@@ -37875,19 +37896,19 @@
     </row>
     <row r="719">
       <c r="A719" s="0" t="s">
-        <v>2936</v>
+        <v>2940</v>
       </c>
       <c r="B719" s="0" t="s">
-        <v>2937</v>
+        <v>2941</v>
       </c>
       <c r="C719" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D719" s="0" t="s">
-        <v>2938</v>
+        <v>1344</v>
       </c>
       <c r="E719" s="0" t="s">
-        <v>2939</v>
+        <v>1345</v>
       </c>
       <c r="F719" s="0" t="s">
         <v>14</v>
@@ -37902,10 +37923,10 @@
         <v>323</v>
       </c>
       <c r="J719" s="0" t="s">
-        <v>2940</v>
+        <v>499</v>
       </c>
       <c r="K719" s="0" t="s">
-        <v>2941</v>
+        <v>2942</v>
       </c>
       <c r="L719" s="0" t="s">
         <v>22</v>
@@ -37913,37 +37934,37 @@
     </row>
     <row r="720">
       <c r="A720" s="0" t="s">
-        <v>2942</v>
+        <v>2943</v>
       </c>
       <c r="B720" s="0" t="s">
-        <v>2943</v>
+        <v>2944</v>
       </c>
       <c r="C720" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D720" s="0" t="s">
-        <v>2944</v>
+        <v>2945</v>
       </c>
       <c r="E720" s="0" t="s">
-        <v>2943</v>
+        <v>2946</v>
       </c>
       <c r="F720" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G720" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H720" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I720" s="0" t="s">
-        <v>2945</v>
+        <v>323</v>
       </c>
       <c r="J720" s="0" t="s">
-        <v>28</v>
+        <v>2947</v>
       </c>
       <c r="K720" s="0" t="s">
-        <v>29</v>
+        <v>2948</v>
       </c>
       <c r="L720" s="0" t="s">
         <v>22</v>
@@ -37951,37 +37972,37 @@
     </row>
     <row r="721">
       <c r="A721" s="0" t="s">
-        <v>2946</v>
+        <v>2949</v>
       </c>
       <c r="B721" s="0" t="s">
-        <v>2947</v>
+        <v>2950</v>
       </c>
       <c r="C721" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D721" s="0" t="s">
-        <v>528</v>
+        <v>2951</v>
       </c>
       <c r="E721" s="0" t="s">
-        <v>529</v>
+        <v>2950</v>
       </c>
       <c r="F721" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G721" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H721" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I721" s="0" t="s">
-        <v>301</v>
+        <v>2952</v>
       </c>
       <c r="J721" s="0" t="s">
-        <v>1037</v>
+        <v>28</v>
       </c>
       <c r="K721" s="0" t="s">
-        <v>2948</v>
+        <v>29</v>
       </c>
       <c r="L721" s="0" t="s">
         <v>22</v>
@@ -37989,10 +38010,10 @@
     </row>
     <row r="722">
       <c r="A722" s="0" t="s">
-        <v>2949</v>
+        <v>2953</v>
       </c>
       <c r="B722" s="0" t="s">
-        <v>2947</v>
+        <v>2954</v>
       </c>
       <c r="C722" s="0" t="s">
         <v>14</v>
@@ -38013,13 +38034,13 @@
         <v>18</v>
       </c>
       <c r="I722" s="0" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J722" s="0" t="s">
-        <v>2670</v>
+        <v>1037</v>
       </c>
       <c r="K722" s="0" t="s">
-        <v>2671</v>
+        <v>2955</v>
       </c>
       <c r="L722" s="0" t="s">
         <v>22</v>
@@ -38027,19 +38048,19 @@
     </row>
     <row r="723">
       <c r="A723" s="0" t="s">
-        <v>2950</v>
+        <v>2956</v>
       </c>
       <c r="B723" s="0" t="s">
-        <v>2951</v>
+        <v>2954</v>
       </c>
       <c r="C723" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D723" s="0" t="s">
-        <v>2952</v>
+        <v>528</v>
       </c>
       <c r="E723" s="0" t="s">
-        <v>2953</v>
+        <v>529</v>
       </c>
       <c r="F723" s="0" t="s">
         <v>14</v>
@@ -38051,13 +38072,13 @@
         <v>18</v>
       </c>
       <c r="I723" s="0" t="s">
-        <v>188</v>
+        <v>305</v>
       </c>
       <c r="J723" s="0" t="s">
-        <v>118</v>
+        <v>2670</v>
       </c>
       <c r="K723" s="0" t="s">
-        <v>274</v>
+        <v>2671</v>
       </c>
       <c r="L723" s="0" t="s">
         <v>22</v>
@@ -38065,19 +38086,19 @@
     </row>
     <row r="724">
       <c r="A724" s="0" t="s">
-        <v>2954</v>
+        <v>2957</v>
       </c>
       <c r="B724" s="0" t="s">
-        <v>2955</v>
+        <v>2958</v>
       </c>
       <c r="C724" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D724" s="0" t="s">
-        <v>2956</v>
+        <v>2959</v>
       </c>
       <c r="E724" s="0" t="s">
-        <v>2957</v>
+        <v>2960</v>
       </c>
       <c r="F724" s="0" t="s">
         <v>14</v>
@@ -38089,13 +38110,13 @@
         <v>18</v>
       </c>
       <c r="I724" s="0" t="s">
-        <v>323</v>
+        <v>188</v>
       </c>
       <c r="J724" s="0" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="K724" s="0" t="s">
-        <v>816</v>
+        <v>274</v>
       </c>
       <c r="L724" s="0" t="s">
         <v>22</v>
@@ -38103,57 +38124,57 @@
     </row>
     <row r="725">
       <c r="A725" s="0" t="s">
-        <v>2958</v>
+        <v>2961</v>
       </c>
       <c r="B725" s="0" t="s">
-        <v>2959</v>
+        <v>2962</v>
       </c>
       <c r="C725" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D725" s="0" t="s">
-        <v>2960</v>
+        <v>2963</v>
       </c>
       <c r="E725" s="0" t="s">
-        <v>2961</v>
+        <v>2964</v>
       </c>
       <c r="F725" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G725" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H725" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I725" s="0" t="s">
-        <v>1706</v>
+        <v>323</v>
       </c>
       <c r="J725" s="0" t="s">
-        <v>522</v>
+        <v>99</v>
       </c>
       <c r="K725" s="0" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="L725" s="0" t="s">
-        <v>767</v>
+        <v>22</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="0" t="s">
-        <v>2962</v>
+        <v>2965</v>
       </c>
       <c r="B726" s="0" t="s">
-        <v>2959</v>
+        <v>2966</v>
       </c>
       <c r="C726" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D726" s="0" t="s">
-        <v>2963</v>
+        <v>2967</v>
       </c>
       <c r="E726" s="0" t="s">
-        <v>2964</v>
+        <v>2968</v>
       </c>
       <c r="F726" s="0" t="s">
         <v>14</v>
@@ -38165,21 +38186,21 @@
         <v>18</v>
       </c>
       <c r="I726" s="0" t="s">
+        <v>1706</v>
+      </c>
+      <c r="J726" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="K726" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="L726" s="0" t="s">
         <v>767</v>
-      </c>
-      <c r="J726" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K726" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="L726" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="0" t="s">
-        <v>2965</v>
+        <v>2969</v>
       </c>
       <c r="B727" s="0" t="s">
         <v>2966</v>
@@ -38188,10 +38209,10 @@
         <v>14</v>
       </c>
       <c r="D727" s="0" t="s">
-        <v>2960</v>
+        <v>2970</v>
       </c>
       <c r="E727" s="0" t="s">
-        <v>2961</v>
+        <v>2971</v>
       </c>
       <c r="F727" s="0" t="s">
         <v>14</v>
@@ -38206,10 +38227,10 @@
         <v>767</v>
       </c>
       <c r="J727" s="0" t="s">
-        <v>1751</v>
+        <v>113</v>
       </c>
       <c r="K727" s="0" t="s">
-        <v>2967</v>
+        <v>29</v>
       </c>
       <c r="L727" s="0" t="s">
         <v>22</v>
@@ -38217,19 +38238,19 @@
     </row>
     <row r="728">
       <c r="A728" s="0" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B728" s="0" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C728" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D728" s="0" t="s">
+        <v>2967</v>
+      </c>
+      <c r="E728" s="0" t="s">
         <v>2968</v>
-      </c>
-      <c r="B728" s="0" t="s">
-        <v>2969</v>
-      </c>
-      <c r="C728" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D728" s="0" t="s">
-        <v>2970</v>
-      </c>
-      <c r="E728" s="0" t="s">
-        <v>2971</v>
       </c>
       <c r="F728" s="0" t="s">
         <v>14</v>
@@ -38241,13 +38262,13 @@
         <v>18</v>
       </c>
       <c r="I728" s="0" t="s">
-        <v>805</v>
+        <v>767</v>
       </c>
       <c r="J728" s="0" t="s">
-        <v>780</v>
+        <v>1751</v>
       </c>
       <c r="K728" s="0" t="s">
-        <v>2972</v>
+        <v>2974</v>
       </c>
       <c r="L728" s="0" t="s">
         <v>22</v>
@@ -38255,25 +38276,25 @@
     </row>
     <row r="729">
       <c r="A729" s="0" t="s">
-        <v>2973</v>
+        <v>2975</v>
       </c>
       <c r="B729" s="0" t="s">
-        <v>2974</v>
+        <v>2976</v>
       </c>
       <c r="C729" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D729" s="0" t="s">
-        <v>2975</v>
+        <v>2977</v>
       </c>
       <c r="E729" s="0" t="s">
-        <v>2976</v>
+        <v>2978</v>
       </c>
       <c r="F729" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G729" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H729" s="0" t="s">
         <v>18</v>
@@ -38282,10 +38303,10 @@
         <v>805</v>
       </c>
       <c r="J729" s="0" t="s">
-        <v>417</v>
+        <v>780</v>
       </c>
       <c r="K729" s="0" t="s">
-        <v>778</v>
+        <v>2979</v>
       </c>
       <c r="L729" s="0" t="s">
         <v>22</v>
@@ -38293,25 +38314,25 @@
     </row>
     <row r="730">
       <c r="A730" s="0" t="s">
-        <v>2977</v>
+        <v>2980</v>
       </c>
       <c r="B730" s="0" t="s">
-        <v>2978</v>
+        <v>2981</v>
       </c>
       <c r="C730" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D730" s="0" t="s">
-        <v>2979</v>
+        <v>2982</v>
       </c>
       <c r="E730" s="0" t="s">
-        <v>2980</v>
+        <v>2983</v>
       </c>
       <c r="F730" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G730" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H730" s="0" t="s">
         <v>18</v>
@@ -38320,10 +38341,10 @@
         <v>805</v>
       </c>
       <c r="J730" s="0" t="s">
-        <v>92</v>
+        <v>417</v>
       </c>
       <c r="K730" s="0" t="s">
-        <v>2981</v>
+        <v>778</v>
       </c>
       <c r="L730" s="0" t="s">
         <v>22</v>
@@ -38331,37 +38352,37 @@
     </row>
     <row r="731">
       <c r="A731" s="0" t="s">
-        <v>2982</v>
+        <v>2984</v>
       </c>
       <c r="B731" s="0" t="s">
-        <v>2983</v>
+        <v>2985</v>
       </c>
       <c r="C731" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D731" s="0" t="s">
-        <v>2984</v>
+        <v>2986</v>
       </c>
       <c r="E731" s="0" t="s">
-        <v>2985</v>
+        <v>2987</v>
       </c>
       <c r="F731" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G731" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H731" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I731" s="0" t="s">
-        <v>498</v>
+        <v>805</v>
       </c>
       <c r="J731" s="0" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="K731" s="0" t="s">
-        <v>2986</v>
+        <v>2988</v>
       </c>
       <c r="L731" s="0" t="s">
         <v>22</v>
@@ -38369,19 +38390,19 @@
     </row>
     <row r="732">
       <c r="A732" s="0" t="s">
-        <v>2987</v>
+        <v>2989</v>
       </c>
       <c r="B732" s="0" t="s">
-        <v>2988</v>
+        <v>2990</v>
       </c>
       <c r="C732" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D732" s="0" t="s">
-        <v>58</v>
+        <v>2991</v>
       </c>
       <c r="E732" s="0" t="s">
-        <v>59</v>
+        <v>2992</v>
       </c>
       <c r="F732" s="0" t="s">
         <v>14</v>
@@ -38393,33 +38414,33 @@
         <v>18</v>
       </c>
       <c r="I732" s="0" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="J732" s="0" t="s">
-        <v>780</v>
+        <v>53</v>
       </c>
       <c r="K732" s="0" t="s">
-        <v>2972</v>
+        <v>2993</v>
       </c>
       <c r="L732" s="0" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="0" t="s">
-        <v>2989</v>
+        <v>2994</v>
       </c>
       <c r="B733" s="0" t="s">
-        <v>2990</v>
+        <v>2995</v>
       </c>
       <c r="C733" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D733" s="0" t="s">
-        <v>1949</v>
+        <v>58</v>
       </c>
       <c r="E733" s="0" t="s">
-        <v>1950</v>
+        <v>59</v>
       </c>
       <c r="F733" s="0" t="s">
         <v>14</v>
@@ -38431,33 +38452,33 @@
         <v>18</v>
       </c>
       <c r="I733" s="0" t="s">
-        <v>255</v>
+        <v>530</v>
       </c>
       <c r="J733" s="0" t="s">
-        <v>1951</v>
+        <v>780</v>
       </c>
       <c r="K733" s="0" t="s">
-        <v>1952</v>
+        <v>2979</v>
       </c>
       <c r="L733" s="0" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="0" t="s">
-        <v>2991</v>
+        <v>2996</v>
       </c>
       <c r="B734" s="0" t="s">
-        <v>2992</v>
+        <v>2997</v>
       </c>
       <c r="C734" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D734" s="0" t="s">
-        <v>1955</v>
+        <v>1949</v>
       </c>
       <c r="E734" s="0" t="s">
-        <v>1956</v>
+        <v>1950</v>
       </c>
       <c r="F734" s="0" t="s">
         <v>14</v>
@@ -38472,10 +38493,10 @@
         <v>255</v>
       </c>
       <c r="J734" s="0" t="s">
-        <v>1957</v>
+        <v>1951</v>
       </c>
       <c r="K734" s="0" t="s">
-        <v>1958</v>
+        <v>1952</v>
       </c>
       <c r="L734" s="0" t="s">
         <v>22</v>
@@ -38483,10 +38504,10 @@
     </row>
     <row r="735">
       <c r="A735" s="0" t="s">
-        <v>2993</v>
+        <v>2998</v>
       </c>
       <c r="B735" s="0" t="s">
-        <v>2992</v>
+        <v>2999</v>
       </c>
       <c r="C735" s="0" t="s">
         <v>14</v>
@@ -38507,7 +38528,7 @@
         <v>18</v>
       </c>
       <c r="I735" s="0" t="s">
-        <v>1435</v>
+        <v>255</v>
       </c>
       <c r="J735" s="0" t="s">
         <v>1957</v>
@@ -38521,19 +38542,19 @@
     </row>
     <row r="736">
       <c r="A736" s="0" t="s">
-        <v>2994</v>
+        <v>3000</v>
       </c>
       <c r="B736" s="0" t="s">
-        <v>2995</v>
+        <v>2999</v>
       </c>
       <c r="C736" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D736" s="0" t="s">
-        <v>1797</v>
+        <v>1955</v>
       </c>
       <c r="E736" s="0" t="s">
-        <v>1798</v>
+        <v>1956</v>
       </c>
       <c r="F736" s="0" t="s">
         <v>14</v>
@@ -38545,13 +38566,13 @@
         <v>18</v>
       </c>
       <c r="I736" s="0" t="s">
-        <v>2996</v>
+        <v>1435</v>
       </c>
       <c r="J736" s="0" t="s">
-        <v>113</v>
+        <v>1957</v>
       </c>
       <c r="K736" s="0" t="s">
-        <v>29</v>
+        <v>1958</v>
       </c>
       <c r="L736" s="0" t="s">
         <v>22</v>
@@ -38559,19 +38580,19 @@
     </row>
     <row r="737">
       <c r="A737" s="0" t="s">
-        <v>2997</v>
+        <v>3001</v>
       </c>
       <c r="B737" s="0" t="s">
-        <v>2998</v>
+        <v>3002</v>
       </c>
       <c r="C737" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D737" s="0" t="s">
-        <v>116</v>
+        <v>1797</v>
       </c>
       <c r="E737" s="0" t="s">
-        <v>117</v>
+        <v>1798</v>
       </c>
       <c r="F737" s="0" t="s">
         <v>14</v>
@@ -38583,13 +38604,13 @@
         <v>18</v>
       </c>
       <c r="I737" s="0" t="s">
-        <v>2996</v>
+        <v>3003</v>
       </c>
       <c r="J737" s="0" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K737" s="0" t="s">
-        <v>274</v>
+        <v>29</v>
       </c>
       <c r="L737" s="0" t="s">
         <v>22</v>
@@ -38597,19 +38618,19 @@
     </row>
     <row r="738">
       <c r="A738" s="0" t="s">
-        <v>2999</v>
+        <v>3004</v>
       </c>
       <c r="B738" s="0" t="s">
-        <v>3000</v>
+        <v>3005</v>
       </c>
       <c r="C738" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D738" s="0" t="s">
-        <v>266</v>
+        <v>116</v>
       </c>
       <c r="E738" s="0" t="s">
-        <v>267</v>
+        <v>117</v>
       </c>
       <c r="F738" s="0" t="s">
         <v>14</v>
@@ -38621,13 +38642,13 @@
         <v>18</v>
       </c>
       <c r="I738" s="0" t="s">
-        <v>2996</v>
+        <v>3003</v>
       </c>
       <c r="J738" s="0" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="K738" s="0" t="s">
-        <v>1280</v>
+        <v>274</v>
       </c>
       <c r="L738" s="0" t="s">
         <v>22</v>
@@ -38635,37 +38656,37 @@
     </row>
     <row r="739">
       <c r="A739" s="0" t="s">
-        <v>3001</v>
+        <v>3006</v>
       </c>
       <c r="B739" s="0" t="s">
-        <v>3002</v>
+        <v>3007</v>
       </c>
       <c r="C739" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D739" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="E739" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="F739" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G739" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H739" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I739" s="0" t="s">
         <v>3003</v>
       </c>
-      <c r="E739" s="0" t="s">
-        <v>3004</v>
-      </c>
-      <c r="F739" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G739" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H739" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I739" s="0" t="s">
-        <v>2996</v>
-      </c>
       <c r="J739" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K739" s="0" t="s">
-        <v>47</v>
+        <v>1280</v>
       </c>
       <c r="L739" s="0" t="s">
         <v>22</v>
@@ -38673,19 +38694,19 @@
     </row>
     <row r="740">
       <c r="A740" s="0" t="s">
-        <v>3005</v>
+        <v>3008</v>
       </c>
       <c r="B740" s="0" t="s">
-        <v>3006</v>
+        <v>3009</v>
       </c>
       <c r="C740" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D740" s="0" t="s">
-        <v>905</v>
+        <v>3010</v>
       </c>
       <c r="E740" s="0" t="s">
-        <v>906</v>
+        <v>3011</v>
       </c>
       <c r="F740" s="0" t="s">
         <v>14</v>
@@ -38697,13 +38718,13 @@
         <v>18</v>
       </c>
       <c r="I740" s="0" t="s">
-        <v>2996</v>
+        <v>3003</v>
       </c>
       <c r="J740" s="0" t="s">
-        <v>417</v>
+        <v>46</v>
       </c>
       <c r="K740" s="0" t="s">
-        <v>1809</v>
+        <v>47</v>
       </c>
       <c r="L740" s="0" t="s">
         <v>22</v>
@@ -38711,37 +38732,37 @@
     </row>
     <row r="741">
       <c r="A741" s="0" t="s">
-        <v>3007</v>
+        <v>3012</v>
       </c>
       <c r="B741" s="0" t="s">
-        <v>3008</v>
+        <v>3013</v>
       </c>
       <c r="C741" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D741" s="0" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="E741" s="0" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="F741" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G741" s="0" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="H741" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I741" s="0" t="s">
-        <v>2996</v>
+        <v>3003</v>
       </c>
       <c r="J741" s="0" t="s">
-        <v>61</v>
+        <v>417</v>
       </c>
       <c r="K741" s="0" t="s">
-        <v>62</v>
+        <v>1809</v>
       </c>
       <c r="L741" s="0" t="s">
         <v>22</v>
@@ -38749,37 +38770,37 @@
     </row>
     <row r="742">
       <c r="A742" s="0" t="s">
-        <v>3009</v>
+        <v>3014</v>
       </c>
       <c r="B742" s="0" t="s">
-        <v>3010</v>
+        <v>3015</v>
       </c>
       <c r="C742" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D742" s="0" t="s">
-        <v>1466</v>
+        <v>910</v>
       </c>
       <c r="E742" s="0" t="s">
-        <v>1467</v>
+        <v>911</v>
       </c>
       <c r="F742" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G742" s="0" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="H742" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I742" s="0" t="s">
-        <v>2996</v>
+        <v>3003</v>
       </c>
       <c r="J742" s="0" t="s">
-        <v>492</v>
+        <v>61</v>
       </c>
       <c r="K742" s="0" t="s">
-        <v>748</v>
+        <v>62</v>
       </c>
       <c r="L742" s="0" t="s">
         <v>22</v>
@@ -38787,37 +38808,37 @@
     </row>
     <row r="743">
       <c r="A743" s="0" t="s">
-        <v>3011</v>
+        <v>3016</v>
       </c>
       <c r="B743" s="0" t="s">
-        <v>3012</v>
+        <v>3017</v>
       </c>
       <c r="C743" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D743" s="0" t="s">
-        <v>1767</v>
+        <v>1466</v>
       </c>
       <c r="E743" s="0" t="s">
-        <v>1768</v>
+        <v>1467</v>
       </c>
       <c r="F743" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G743" s="0" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="H743" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I743" s="0" t="s">
-        <v>2996</v>
+        <v>3003</v>
       </c>
       <c r="J743" s="0" t="s">
-        <v>818</v>
+        <v>492</v>
       </c>
       <c r="K743" s="0" t="s">
-        <v>819</v>
+        <v>748</v>
       </c>
       <c r="L743" s="0" t="s">
         <v>22</v>
@@ -38825,19 +38846,19 @@
     </row>
     <row r="744">
       <c r="A744" s="0" t="s">
-        <v>3013</v>
+        <v>3018</v>
       </c>
       <c r="B744" s="0" t="s">
-        <v>3014</v>
+        <v>3019</v>
       </c>
       <c r="C744" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D744" s="0" t="s">
-        <v>3015</v>
+        <v>1767</v>
       </c>
       <c r="E744" s="0" t="s">
-        <v>3016</v>
+        <v>1768</v>
       </c>
       <c r="F744" s="0" t="s">
         <v>14</v>
@@ -38849,13 +38870,13 @@
         <v>18</v>
       </c>
       <c r="I744" s="0" t="s">
-        <v>2996</v>
+        <v>3003</v>
       </c>
       <c r="J744" s="0" t="s">
-        <v>522</v>
+        <v>818</v>
       </c>
       <c r="K744" s="0" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="L744" s="0" t="s">
         <v>22</v>
@@ -38863,37 +38884,37 @@
     </row>
     <row r="745">
       <c r="A745" s="0" t="s">
-        <v>3017</v>
+        <v>3020</v>
       </c>
       <c r="B745" s="0" t="s">
-        <v>3018</v>
+        <v>3021</v>
       </c>
       <c r="C745" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D745" s="0" t="s">
-        <v>1825</v>
+        <v>3022</v>
       </c>
       <c r="E745" s="0" t="s">
-        <v>1826</v>
+        <v>3023</v>
       </c>
       <c r="F745" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G745" s="0" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="H745" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I745" s="0" t="s">
-        <v>2996</v>
+        <v>3003</v>
       </c>
       <c r="J745" s="0" t="s">
-        <v>182</v>
+        <v>522</v>
       </c>
       <c r="K745" s="0" t="s">
-        <v>1379</v>
+        <v>828</v>
       </c>
       <c r="L745" s="0" t="s">
         <v>22</v>
@@ -38901,19 +38922,19 @@
     </row>
     <row r="746">
       <c r="A746" s="0" t="s">
-        <v>3019</v>
+        <v>3024</v>
       </c>
       <c r="B746" s="0" t="s">
-        <v>3020</v>
+        <v>3025</v>
       </c>
       <c r="C746" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D746" s="0" t="s">
-        <v>2471</v>
+        <v>1825</v>
       </c>
       <c r="E746" s="0" t="s">
-        <v>2472</v>
+        <v>1826</v>
       </c>
       <c r="F746" s="0" t="s">
         <v>14</v>
@@ -38925,13 +38946,13 @@
         <v>18</v>
       </c>
       <c r="I746" s="0" t="s">
-        <v>2996</v>
+        <v>3003</v>
       </c>
       <c r="J746" s="0" t="s">
-        <v>986</v>
+        <v>182</v>
       </c>
       <c r="K746" s="0" t="s">
-        <v>1070</v>
+        <v>1379</v>
       </c>
       <c r="L746" s="0" t="s">
         <v>22</v>
@@ -38939,19 +38960,19 @@
     </row>
     <row r="747">
       <c r="A747" s="0" t="s">
-        <v>3021</v>
+        <v>3026</v>
       </c>
       <c r="B747" s="0" t="s">
-        <v>3022</v>
+        <v>3027</v>
       </c>
       <c r="C747" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D747" s="0" t="s">
-        <v>3023</v>
+        <v>2471</v>
       </c>
       <c r="E747" s="0" t="s">
-        <v>3024</v>
+        <v>2472</v>
       </c>
       <c r="F747" s="0" t="s">
         <v>14</v>
@@ -38963,13 +38984,13 @@
         <v>18</v>
       </c>
       <c r="I747" s="0" t="s">
-        <v>2996</v>
+        <v>3003</v>
       </c>
       <c r="J747" s="0" t="s">
-        <v>99</v>
+        <v>986</v>
       </c>
       <c r="K747" s="0" t="s">
-        <v>816</v>
+        <v>1070</v>
       </c>
       <c r="L747" s="0" t="s">
         <v>22</v>
@@ -38977,19 +38998,19 @@
     </row>
     <row r="748">
       <c r="A748" s="0" t="s">
-        <v>3025</v>
+        <v>3028</v>
       </c>
       <c r="B748" s="0" t="s">
-        <v>3026</v>
+        <v>3029</v>
       </c>
       <c r="C748" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D748" s="0" t="s">
-        <v>310</v>
+        <v>3030</v>
       </c>
       <c r="E748" s="0" t="s">
-        <v>311</v>
+        <v>3031</v>
       </c>
       <c r="F748" s="0" t="s">
         <v>14</v>
@@ -39001,13 +39022,13 @@
         <v>18</v>
       </c>
       <c r="I748" s="0" t="s">
-        <v>530</v>
+        <v>3003</v>
       </c>
       <c r="J748" s="0" t="s">
-        <v>2030</v>
+        <v>99</v>
       </c>
       <c r="K748" s="0" t="s">
-        <v>3027</v>
+        <v>816</v>
       </c>
       <c r="L748" s="0" t="s">
         <v>22</v>
@@ -39015,10 +39036,10 @@
     </row>
     <row r="749">
       <c r="A749" s="0" t="s">
-        <v>3028</v>
+        <v>3032</v>
       </c>
       <c r="B749" s="0" t="s">
-        <v>3026</v>
+        <v>3033</v>
       </c>
       <c r="C749" s="0" t="s">
         <v>14</v>
@@ -39039,13 +39060,13 @@
         <v>18</v>
       </c>
       <c r="I749" s="0" t="s">
-        <v>55</v>
+        <v>530</v>
       </c>
       <c r="J749" s="0" t="s">
-        <v>622</v>
+        <v>2030</v>
       </c>
       <c r="K749" s="0" t="s">
-        <v>3029</v>
+        <v>3034</v>
       </c>
       <c r="L749" s="0" t="s">
         <v>22</v>
@@ -39053,10 +39074,10 @@
     </row>
     <row r="750">
       <c r="A750" s="0" t="s">
-        <v>3030</v>
+        <v>3035</v>
       </c>
       <c r="B750" s="0" t="s">
-        <v>3026</v>
+        <v>3033</v>
       </c>
       <c r="C750" s="0" t="s">
         <v>14</v>
@@ -39077,13 +39098,13 @@
         <v>18</v>
       </c>
       <c r="I750" s="0" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="J750" s="0" t="s">
-        <v>3031</v>
+        <v>622</v>
       </c>
       <c r="K750" s="0" t="s">
-        <v>3032</v>
+        <v>3036</v>
       </c>
       <c r="L750" s="0" t="s">
         <v>22</v>
@@ -39091,19 +39112,19 @@
     </row>
     <row r="751">
       <c r="A751" s="0" t="s">
+        <v>3037</v>
+      </c>
+      <c r="B751" s="0" t="s">
         <v>3033</v>
       </c>
-      <c r="B751" s="0" t="s">
-        <v>3034</v>
-      </c>
       <c r="C751" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D751" s="0" t="s">
-        <v>1961</v>
+        <v>310</v>
       </c>
       <c r="E751" s="0" t="s">
-        <v>1962</v>
+        <v>311</v>
       </c>
       <c r="F751" s="0" t="s">
         <v>14</v>
@@ -39115,13 +39136,13 @@
         <v>18</v>
       </c>
       <c r="I751" s="0" t="s">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="J751" s="0" t="s">
-        <v>534</v>
+        <v>3038</v>
       </c>
       <c r="K751" s="0" t="s">
-        <v>1963</v>
+        <v>3039</v>
       </c>
       <c r="L751" s="0" t="s">
         <v>22</v>
@@ -39129,86 +39150,86 @@
     </row>
     <row r="752">
       <c r="A752" s="0" t="s">
-        <v>3035</v>
+        <v>3040</v>
       </c>
       <c r="B752" s="0" t="s">
-        <v>3036</v>
+        <v>3041</v>
       </c>
       <c r="C752" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D752" s="0" t="s">
-        <v>3037</v>
+        <v>1961</v>
       </c>
       <c r="E752" s="0" t="s">
-        <v>3038</v>
+        <v>1962</v>
       </c>
       <c r="F752" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G752" s="0" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="H752" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I752" s="0" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="J752" s="0" t="s">
-        <v>2800</v>
+        <v>534</v>
       </c>
       <c r="K752" s="0" t="s">
-        <v>3039</v>
+        <v>1963</v>
       </c>
       <c r="L752" s="0" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="0" t="s">
-        <v>3040</v>
+        <v>3042</v>
       </c>
       <c r="B753" s="0" t="s">
-        <v>3041</v>
+        <v>3043</v>
       </c>
       <c r="C753" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D753" s="0" t="s">
-        <v>310</v>
+        <v>3044</v>
       </c>
       <c r="E753" s="0" t="s">
-        <v>311</v>
+        <v>3045</v>
       </c>
       <c r="F753" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G753" s="0" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="H753" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I753" s="0" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="J753" s="0" t="s">
-        <v>3042</v>
+        <v>2807</v>
       </c>
       <c r="K753" s="0" t="s">
-        <v>3043</v>
+        <v>3046</v>
       </c>
       <c r="L753" s="0" t="s">
-        <v>301</v>
+        <v>85</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="0" t="s">
-        <v>3044</v>
+        <v>3047</v>
       </c>
       <c r="B754" s="0" t="s">
-        <v>3041</v>
+        <v>3048</v>
       </c>
       <c r="C754" s="0" t="s">
         <v>14</v>
@@ -39229,13 +39250,13 @@
         <v>18</v>
       </c>
       <c r="I754" s="0" t="s">
-        <v>508</v>
+        <v>19</v>
       </c>
       <c r="J754" s="0" t="s">
-        <v>340</v>
+        <v>3049</v>
       </c>
       <c r="K754" s="0" t="s">
-        <v>3045</v>
+        <v>3050</v>
       </c>
       <c r="L754" s="0" t="s">
         <v>301</v>
@@ -39243,19 +39264,19 @@
     </row>
     <row r="755">
       <c r="A755" s="0" t="s">
-        <v>3046</v>
+        <v>3051</v>
       </c>
       <c r="B755" s="0" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="C755" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D755" s="0" t="s">
-        <v>881</v>
+        <v>310</v>
       </c>
       <c r="E755" s="0" t="s">
-        <v>882</v>
+        <v>311</v>
       </c>
       <c r="F755" s="0" t="s">
         <v>14</v>
@@ -39267,24 +39288,24 @@
         <v>18</v>
       </c>
       <c r="I755" s="0" t="s">
-        <v>168</v>
+        <v>508</v>
       </c>
       <c r="J755" s="0" t="s">
-        <v>46</v>
+        <v>340</v>
       </c>
       <c r="K755" s="0" t="s">
-        <v>3048</v>
+        <v>3052</v>
       </c>
       <c r="L755" s="0" t="s">
-        <v>1410</v>
+        <v>301</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="0" t="s">
-        <v>3049</v>
+        <v>3053</v>
       </c>
       <c r="B756" s="0" t="s">
-        <v>3047</v>
+        <v>3054</v>
       </c>
       <c r="C756" s="0" t="s">
         <v>14</v>
@@ -39305,24 +39326,24 @@
         <v>18</v>
       </c>
       <c r="I756" s="0" t="s">
-        <v>883</v>
+        <v>168</v>
       </c>
       <c r="J756" s="0" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="K756" s="0" t="s">
-        <v>29</v>
+        <v>3055</v>
       </c>
       <c r="L756" s="0" t="s">
-        <v>22</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="0" t="s">
-        <v>3050</v>
+        <v>3056</v>
       </c>
       <c r="B757" s="0" t="s">
-        <v>3051</v>
+        <v>3054</v>
       </c>
       <c r="C757" s="0" t="s">
         <v>14</v>
@@ -39343,7 +39364,7 @@
         <v>18</v>
       </c>
       <c r="I757" s="0" t="s">
-        <v>1410</v>
+        <v>883</v>
       </c>
       <c r="J757" s="0" t="s">
         <v>113</v>
@@ -39357,19 +39378,19 @@
     </row>
     <row r="758">
       <c r="A758" s="0" t="s">
-        <v>3052</v>
+        <v>3057</v>
       </c>
       <c r="B758" s="0" t="s">
-        <v>3053</v>
+        <v>3058</v>
       </c>
       <c r="C758" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D758" s="0" t="s">
-        <v>2348</v>
+        <v>881</v>
       </c>
       <c r="E758" s="0" t="s">
-        <v>2349</v>
+        <v>882</v>
       </c>
       <c r="F758" s="0" t="s">
         <v>14</v>
@@ -39381,24 +39402,24 @@
         <v>18</v>
       </c>
       <c r="I758" s="0" t="s">
-        <v>193</v>
+        <v>1410</v>
       </c>
       <c r="J758" s="0" t="s">
-        <v>3054</v>
+        <v>113</v>
       </c>
       <c r="K758" s="0" t="s">
-        <v>3055</v>
+        <v>29</v>
       </c>
       <c r="L758" s="0" t="s">
-        <v>2350</v>
+        <v>22</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="0" t="s">
-        <v>3056</v>
+        <v>3059</v>
       </c>
       <c r="B759" s="0" t="s">
-        <v>3053</v>
+        <v>3060</v>
       </c>
       <c r="C759" s="0" t="s">
         <v>14</v>
@@ -39419,13 +39440,13 @@
         <v>18</v>
       </c>
       <c r="I759" s="0" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="J759" s="0" t="s">
-        <v>3054</v>
+        <v>3061</v>
       </c>
       <c r="K759" s="0" t="s">
-        <v>3055</v>
+        <v>3062</v>
       </c>
       <c r="L759" s="0" t="s">
         <v>2350</v>
@@ -39433,10 +39454,10 @@
     </row>
     <row r="760">
       <c r="A760" s="0" t="s">
-        <v>3057</v>
+        <v>3063</v>
       </c>
       <c r="B760" s="0" t="s">
-        <v>3053</v>
+        <v>3060</v>
       </c>
       <c r="C760" s="0" t="s">
         <v>14</v>
@@ -39457,13 +39478,13 @@
         <v>18</v>
       </c>
       <c r="I760" s="0" t="s">
-        <v>718</v>
+        <v>205</v>
       </c>
       <c r="J760" s="0" t="s">
-        <v>3054</v>
+        <v>3061</v>
       </c>
       <c r="K760" s="0" t="s">
-        <v>3055</v>
+        <v>3062</v>
       </c>
       <c r="L760" s="0" t="s">
         <v>2350</v>
@@ -39471,10 +39492,10 @@
     </row>
     <row r="761">
       <c r="A761" s="0" t="s">
-        <v>3058</v>
+        <v>3064</v>
       </c>
       <c r="B761" s="0" t="s">
-        <v>3053</v>
+        <v>3060</v>
       </c>
       <c r="C761" s="0" t="s">
         <v>14</v>
@@ -39495,13 +39516,13 @@
         <v>18</v>
       </c>
       <c r="I761" s="0" t="s">
-        <v>530</v>
+        <v>718</v>
       </c>
       <c r="J761" s="0" t="s">
-        <v>3054</v>
+        <v>3061</v>
       </c>
       <c r="K761" s="0" t="s">
-        <v>3055</v>
+        <v>3062</v>
       </c>
       <c r="L761" s="0" t="s">
         <v>2350</v>
@@ -39509,10 +39530,10 @@
     </row>
     <row r="762">
       <c r="A762" s="0" t="s">
-        <v>3059</v>
+        <v>3065</v>
       </c>
       <c r="B762" s="0" t="s">
-        <v>3053</v>
+        <v>3060</v>
       </c>
       <c r="C762" s="0" t="s">
         <v>14</v>
@@ -39533,13 +39554,13 @@
         <v>18</v>
       </c>
       <c r="I762" s="0" t="s">
-        <v>19</v>
+        <v>530</v>
       </c>
       <c r="J762" s="0" t="s">
-        <v>3054</v>
+        <v>3061</v>
       </c>
       <c r="K762" s="0" t="s">
-        <v>3055</v>
+        <v>3062</v>
       </c>
       <c r="L762" s="0" t="s">
         <v>2350</v>
@@ -39547,10 +39568,10 @@
     </row>
     <row r="763">
       <c r="A763" s="0" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B763" s="0" t="s">
         <v>3060</v>
-      </c>
-      <c r="B763" s="0" t="s">
-        <v>3053</v>
       </c>
       <c r="C763" s="0" t="s">
         <v>14</v>
@@ -39571,13 +39592,13 @@
         <v>18</v>
       </c>
       <c r="I763" s="0" t="s">
-        <v>515</v>
+        <v>19</v>
       </c>
       <c r="J763" s="0" t="s">
-        <v>3054</v>
+        <v>3061</v>
       </c>
       <c r="K763" s="0" t="s">
-        <v>3055</v>
+        <v>3062</v>
       </c>
       <c r="L763" s="0" t="s">
         <v>2350</v>
@@ -39585,10 +39606,10 @@
     </row>
     <row r="764">
       <c r="A764" s="0" t="s">
-        <v>3061</v>
+        <v>3067</v>
       </c>
       <c r="B764" s="0" t="s">
-        <v>3053</v>
+        <v>3060</v>
       </c>
       <c r="C764" s="0" t="s">
         <v>14</v>
@@ -39609,13 +39630,13 @@
         <v>18</v>
       </c>
       <c r="I764" s="0" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="J764" s="0" t="s">
-        <v>3054</v>
+        <v>3061</v>
       </c>
       <c r="K764" s="0" t="s">
-        <v>3055</v>
+        <v>3062</v>
       </c>
       <c r="L764" s="0" t="s">
         <v>2350</v>
@@ -39623,10 +39644,10 @@
     </row>
     <row r="765">
       <c r="A765" s="0" t="s">
-        <v>3062</v>
+        <v>3068</v>
       </c>
       <c r="B765" s="0" t="s">
-        <v>3053</v>
+        <v>3060</v>
       </c>
       <c r="C765" s="0" t="s">
         <v>14</v>
@@ -39647,13 +39668,13 @@
         <v>18</v>
       </c>
       <c r="I765" s="0" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="J765" s="0" t="s">
-        <v>3054</v>
+        <v>3061</v>
       </c>
       <c r="K765" s="0" t="s">
-        <v>3055</v>
+        <v>3062</v>
       </c>
       <c r="L765" s="0" t="s">
         <v>2350</v>
@@ -39661,10 +39682,10 @@
     </row>
     <row r="766">
       <c r="A766" s="0" t="s">
-        <v>3063</v>
+        <v>3069</v>
       </c>
       <c r="B766" s="0" t="s">
-        <v>3053</v>
+        <v>3060</v>
       </c>
       <c r="C766" s="0" t="s">
         <v>14</v>
@@ -39685,13 +39706,13 @@
         <v>18</v>
       </c>
       <c r="I766" s="0" t="s">
-        <v>349</v>
+        <v>498</v>
       </c>
       <c r="J766" s="0" t="s">
-        <v>3054</v>
+        <v>3061</v>
       </c>
       <c r="K766" s="0" t="s">
-        <v>3055</v>
+        <v>3062</v>
       </c>
       <c r="L766" s="0" t="s">
         <v>2350</v>
@@ -39699,10 +39720,10 @@
     </row>
     <row r="767">
       <c r="A767" s="0" t="s">
-        <v>3064</v>
+        <v>3070</v>
       </c>
       <c r="B767" s="0" t="s">
-        <v>3053</v>
+        <v>3060</v>
       </c>
       <c r="C767" s="0" t="s">
         <v>14</v>
@@ -39723,13 +39744,13 @@
         <v>18</v>
       </c>
       <c r="I767" s="0" t="s">
-        <v>487</v>
+        <v>349</v>
       </c>
       <c r="J767" s="0" t="s">
-        <v>3054</v>
+        <v>3061</v>
       </c>
       <c r="K767" s="0" t="s">
-        <v>3055</v>
+        <v>3062</v>
       </c>
       <c r="L767" s="0" t="s">
         <v>2350</v>
@@ -39737,10 +39758,10 @@
     </row>
     <row r="768">
       <c r="A768" s="0" t="s">
-        <v>3065</v>
+        <v>3071</v>
       </c>
       <c r="B768" s="0" t="s">
-        <v>3053</v>
+        <v>3060</v>
       </c>
       <c r="C768" s="0" t="s">
         <v>14</v>
@@ -39761,13 +39782,13 @@
         <v>18</v>
       </c>
       <c r="I768" s="0" t="s">
-        <v>805</v>
+        <v>487</v>
       </c>
       <c r="J768" s="0" t="s">
-        <v>3054</v>
+        <v>3061</v>
       </c>
       <c r="K768" s="0" t="s">
-        <v>3055</v>
+        <v>3062</v>
       </c>
       <c r="L768" s="0" t="s">
         <v>2350</v>
@@ -39775,10 +39796,10 @@
     </row>
     <row r="769">
       <c r="A769" s="0" t="s">
-        <v>3066</v>
+        <v>3072</v>
       </c>
       <c r="B769" s="0" t="s">
-        <v>3053</v>
+        <v>3060</v>
       </c>
       <c r="C769" s="0" t="s">
         <v>14</v>
@@ -39799,13 +39820,13 @@
         <v>18</v>
       </c>
       <c r="I769" s="0" t="s">
-        <v>525</v>
+        <v>805</v>
       </c>
       <c r="J769" s="0" t="s">
-        <v>3054</v>
+        <v>3061</v>
       </c>
       <c r="K769" s="0" t="s">
-        <v>3055</v>
+        <v>3062</v>
       </c>
       <c r="L769" s="0" t="s">
         <v>2350</v>
@@ -39813,10 +39834,10 @@
     </row>
     <row r="770">
       <c r="A770" s="0" t="s">
-        <v>3067</v>
+        <v>3073</v>
       </c>
       <c r="B770" s="0" t="s">
-        <v>3053</v>
+        <v>3060</v>
       </c>
       <c r="C770" s="0" t="s">
         <v>14</v>
@@ -39837,13 +39858,13 @@
         <v>18</v>
       </c>
       <c r="I770" s="0" t="s">
-        <v>78</v>
+        <v>525</v>
       </c>
       <c r="J770" s="0" t="s">
-        <v>3054</v>
+        <v>3061</v>
       </c>
       <c r="K770" s="0" t="s">
-        <v>3055</v>
+        <v>3062</v>
       </c>
       <c r="L770" s="0" t="s">
         <v>2350</v>
@@ -39851,10 +39872,10 @@
     </row>
     <row r="771">
       <c r="A771" s="0" t="s">
-        <v>3068</v>
+        <v>3074</v>
       </c>
       <c r="B771" s="0" t="s">
-        <v>3053</v>
+        <v>3060</v>
       </c>
       <c r="C771" s="0" t="s">
         <v>14</v>
@@ -39875,33 +39896,33 @@
         <v>18</v>
       </c>
       <c r="I771" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="J771" s="0" t="s">
-        <v>3054</v>
+        <v>3061</v>
       </c>
       <c r="K771" s="0" t="s">
-        <v>3055</v>
+        <v>3062</v>
       </c>
       <c r="L771" s="0" t="s">
-        <v>3069</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="0" t="s">
-        <v>3070</v>
+        <v>3075</v>
       </c>
       <c r="B772" s="0" t="s">
-        <v>3071</v>
+        <v>3060</v>
       </c>
       <c r="C772" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D772" s="0" t="s">
-        <v>243</v>
+        <v>2348</v>
       </c>
       <c r="E772" s="0" t="s">
-        <v>244</v>
+        <v>2349</v>
       </c>
       <c r="F772" s="0" t="s">
         <v>14</v>
@@ -39913,33 +39934,33 @@
         <v>18</v>
       </c>
       <c r="I772" s="0" t="s">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="J772" s="0" t="s">
-        <v>46</v>
+        <v>3061</v>
       </c>
       <c r="K772" s="0" t="s">
-        <v>1521</v>
+        <v>3062</v>
       </c>
       <c r="L772" s="0" t="s">
-        <v>22</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="0" t="s">
-        <v>3072</v>
+        <v>3077</v>
       </c>
       <c r="B773" s="0" t="s">
-        <v>3073</v>
+        <v>3078</v>
       </c>
       <c r="C773" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D773" s="0" t="s">
-        <v>3074</v>
+        <v>243</v>
       </c>
       <c r="E773" s="0" t="s">
-        <v>3075</v>
+        <v>244</v>
       </c>
       <c r="F773" s="0" t="s">
         <v>14</v>
@@ -39951,13 +39972,13 @@
         <v>18</v>
       </c>
       <c r="I773" s="0" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="J773" s="0" t="s">
-        <v>1939</v>
+        <v>46</v>
       </c>
       <c r="K773" s="0" t="s">
-        <v>3076</v>
+        <v>1521</v>
       </c>
       <c r="L773" s="0" t="s">
         <v>22</v>
@@ -39965,19 +39986,19 @@
     </row>
     <row r="774">
       <c r="A774" s="0" t="s">
-        <v>3077</v>
+        <v>3079</v>
       </c>
       <c r="B774" s="0" t="s">
-        <v>3078</v>
+        <v>3080</v>
       </c>
       <c r="C774" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D774" s="0" t="s">
-        <v>3079</v>
+        <v>3081</v>
       </c>
       <c r="E774" s="0" t="s">
-        <v>3080</v>
+        <v>3082</v>
       </c>
       <c r="F774" s="0" t="s">
         <v>14</v>
@@ -39989,13 +40010,13 @@
         <v>18</v>
       </c>
       <c r="I774" s="0" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="J774" s="0" t="s">
         <v>1939</v>
       </c>
       <c r="K774" s="0" t="s">
-        <v>3081</v>
+        <v>3083</v>
       </c>
       <c r="L774" s="0" t="s">
         <v>22</v>
@@ -40003,19 +40024,19 @@
     </row>
     <row r="775">
       <c r="A775" s="0" t="s">
-        <v>3082</v>
+        <v>3084</v>
       </c>
       <c r="B775" s="0" t="s">
-        <v>3083</v>
+        <v>3085</v>
       </c>
       <c r="C775" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D775" s="0" t="s">
-        <v>3084</v>
+        <v>3086</v>
       </c>
       <c r="E775" s="0" t="s">
-        <v>3085</v>
+        <v>3087</v>
       </c>
       <c r="F775" s="0" t="s">
         <v>14</v>
@@ -40027,13 +40048,13 @@
         <v>18</v>
       </c>
       <c r="I775" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="J775" s="0" t="s">
-        <v>1072</v>
+        <v>1939</v>
       </c>
       <c r="K775" s="0" t="s">
-        <v>3086</v>
+        <v>3088</v>
       </c>
       <c r="L775" s="0" t="s">
         <v>22</v>
@@ -40041,19 +40062,19 @@
     </row>
     <row r="776">
       <c r="A776" s="0" t="s">
-        <v>3087</v>
+        <v>3089</v>
       </c>
       <c r="B776" s="0" t="s">
-        <v>3088</v>
+        <v>3090</v>
       </c>
       <c r="C776" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D776" s="0" t="s">
-        <v>3089</v>
+        <v>3091</v>
       </c>
       <c r="E776" s="0" t="s">
-        <v>3090</v>
+        <v>3092</v>
       </c>
       <c r="F776" s="0" t="s">
         <v>14</v>
@@ -40065,13 +40086,13 @@
         <v>18</v>
       </c>
       <c r="I776" s="0" t="s">
-        <v>1410</v>
+        <v>55</v>
       </c>
       <c r="J776" s="0" t="s">
-        <v>417</v>
+        <v>1072</v>
       </c>
       <c r="K776" s="0" t="s">
-        <v>1809</v>
+        <v>3093</v>
       </c>
       <c r="L776" s="0" t="s">
         <v>22</v>
@@ -40079,19 +40100,19 @@
     </row>
     <row r="777">
       <c r="A777" s="0" t="s">
-        <v>3091</v>
+        <v>3094</v>
       </c>
       <c r="B777" s="0" t="s">
-        <v>3088</v>
+        <v>3095</v>
       </c>
       <c r="C777" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D777" s="0" t="s">
-        <v>3089</v>
+        <v>3096</v>
       </c>
       <c r="E777" s="0" t="s">
-        <v>3090</v>
+        <v>3097</v>
       </c>
       <c r="F777" s="0" t="s">
         <v>14</v>
@@ -40103,7 +40124,7 @@
         <v>18</v>
       </c>
       <c r="I777" s="0" t="s">
-        <v>883</v>
+        <v>1410</v>
       </c>
       <c r="J777" s="0" t="s">
         <v>417</v>
@@ -40117,19 +40138,19 @@
     </row>
     <row r="778">
       <c r="A778" s="0" t="s">
-        <v>3092</v>
+        <v>3098</v>
       </c>
       <c r="B778" s="0" t="s">
-        <v>3093</v>
+        <v>3095</v>
       </c>
       <c r="C778" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D778" s="0" t="s">
-        <v>3094</v>
+        <v>3096</v>
       </c>
       <c r="E778" s="0" t="s">
-        <v>3095</v>
+        <v>3097</v>
       </c>
       <c r="F778" s="0" t="s">
         <v>14</v>
@@ -40141,13 +40162,13 @@
         <v>18</v>
       </c>
       <c r="I778" s="0" t="s">
-        <v>205</v>
+        <v>883</v>
       </c>
       <c r="J778" s="0" t="s">
-        <v>46</v>
+        <v>417</v>
       </c>
       <c r="K778" s="0" t="s">
-        <v>1521</v>
+        <v>1809</v>
       </c>
       <c r="L778" s="0" t="s">
         <v>22</v>
@@ -40155,19 +40176,19 @@
     </row>
     <row r="779">
       <c r="A779" s="0" t="s">
-        <v>3096</v>
+        <v>3099</v>
       </c>
       <c r="B779" s="0" t="s">
-        <v>3097</v>
+        <v>3100</v>
       </c>
       <c r="C779" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D779" s="0" t="s">
-        <v>3098</v>
+        <v>3101</v>
       </c>
       <c r="E779" s="0" t="s">
-        <v>3099</v>
+        <v>3102</v>
       </c>
       <c r="F779" s="0" t="s">
         <v>14</v>
@@ -40179,13 +40200,13 @@
         <v>18</v>
       </c>
       <c r="I779" s="0" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="J779" s="0" t="s">
-        <v>2340</v>
+        <v>46</v>
       </c>
       <c r="K779" s="0" t="s">
-        <v>3100</v>
+        <v>1521</v>
       </c>
       <c r="L779" s="0" t="s">
         <v>22</v>
@@ -40193,19 +40214,19 @@
     </row>
     <row r="780">
       <c r="A780" s="0" t="s">
-        <v>3101</v>
+        <v>3103</v>
       </c>
       <c r="B780" s="0" t="s">
-        <v>3097</v>
+        <v>3104</v>
       </c>
       <c r="C780" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D780" s="0" t="s">
-        <v>3102</v>
+        <v>3105</v>
       </c>
       <c r="E780" s="0" t="s">
-        <v>3097</v>
+        <v>3106</v>
       </c>
       <c r="F780" s="0" t="s">
         <v>14</v>
@@ -40217,13 +40238,13 @@
         <v>18</v>
       </c>
       <c r="I780" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="J780" s="0" t="s">
-        <v>330</v>
+        <v>2340</v>
       </c>
       <c r="K780" s="0" t="s">
-        <v>331</v>
+        <v>3107</v>
       </c>
       <c r="L780" s="0" t="s">
         <v>22</v>
@@ -40231,7 +40252,7 @@
     </row>
     <row r="781">
       <c r="A781" s="0" t="s">
-        <v>3103</v>
+        <v>3108</v>
       </c>
       <c r="B781" s="0" t="s">
         <v>3104</v>
@@ -40240,10 +40261,10 @@
         <v>14</v>
       </c>
       <c r="D781" s="0" t="s">
-        <v>3105</v>
+        <v>3109</v>
       </c>
       <c r="E781" s="0" t="s">
-        <v>3106</v>
+        <v>3104</v>
       </c>
       <c r="F781" s="0" t="s">
         <v>14</v>
@@ -40255,13 +40276,13 @@
         <v>18</v>
       </c>
       <c r="I781" s="0" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="J781" s="0" t="s">
-        <v>99</v>
+        <v>330</v>
       </c>
       <c r="K781" s="0" t="s">
-        <v>516</v>
+        <v>331</v>
       </c>
       <c r="L781" s="0" t="s">
         <v>22</v>
@@ -40269,19 +40290,19 @@
     </row>
     <row r="782">
       <c r="A782" s="0" t="s">
-        <v>3107</v>
+        <v>3110</v>
       </c>
       <c r="B782" s="0" t="s">
-        <v>3104</v>
+        <v>3111</v>
       </c>
       <c r="C782" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D782" s="0" t="s">
-        <v>3105</v>
+        <v>3112</v>
       </c>
       <c r="E782" s="0" t="s">
-        <v>3106</v>
+        <v>3113</v>
       </c>
       <c r="F782" s="0" t="s">
         <v>14</v>
@@ -40299,7 +40320,7 @@
         <v>99</v>
       </c>
       <c r="K782" s="0" t="s">
-        <v>1553</v>
+        <v>516</v>
       </c>
       <c r="L782" s="0" t="s">
         <v>22</v>
@@ -40307,19 +40328,19 @@
     </row>
     <row r="783">
       <c r="A783" s="0" t="s">
-        <v>3108</v>
+        <v>3114</v>
       </c>
       <c r="B783" s="0" t="s">
-        <v>3109</v>
+        <v>3111</v>
       </c>
       <c r="C783" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D783" s="0" t="s">
-        <v>3110</v>
+        <v>3112</v>
       </c>
       <c r="E783" s="0" t="s">
-        <v>3109</v>
+        <v>3113</v>
       </c>
       <c r="F783" s="0" t="s">
         <v>14</v>
@@ -40334,10 +40355,10 @@
         <v>19</v>
       </c>
       <c r="J783" s="0" t="s">
-        <v>3111</v>
+        <v>99</v>
       </c>
       <c r="K783" s="0" t="s">
-        <v>3112</v>
+        <v>1553</v>
       </c>
       <c r="L783" s="0" t="s">
         <v>22</v>
@@ -40345,16 +40366,16 @@
     </row>
     <row r="784">
       <c r="A784" s="0" t="s">
-        <v>3113</v>
+        <v>3115</v>
       </c>
       <c r="B784" s="0" t="s">
-        <v>3114</v>
+        <v>3116</v>
       </c>
       <c r="C784" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D784" s="0" t="s">
-        <v>3115</v>
+        <v>3117</v>
       </c>
       <c r="E784" s="0" t="s">
         <v>3116</v>
@@ -40369,13 +40390,13 @@
         <v>18</v>
       </c>
       <c r="I784" s="0" t="s">
-        <v>718</v>
+        <v>19</v>
       </c>
       <c r="J784" s="0" t="s">
-        <v>818</v>
+        <v>3118</v>
       </c>
       <c r="K784" s="0" t="s">
-        <v>3117</v>
+        <v>3119</v>
       </c>
       <c r="L784" s="0" t="s">
         <v>22</v>
@@ -40383,19 +40404,19 @@
     </row>
     <row r="785">
       <c r="A785" s="0" t="s">
-        <v>3118</v>
+        <v>3120</v>
       </c>
       <c r="B785" s="0" t="s">
-        <v>3114</v>
+        <v>3121</v>
       </c>
       <c r="C785" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D785" s="0" t="s">
-        <v>3119</v>
+        <v>3122</v>
       </c>
       <c r="E785" s="0" t="s">
-        <v>3120</v>
+        <v>3123</v>
       </c>
       <c r="F785" s="0" t="s">
         <v>14</v>
@@ -40410,10 +40431,10 @@
         <v>718</v>
       </c>
       <c r="J785" s="0" t="s">
-        <v>986</v>
+        <v>818</v>
       </c>
       <c r="K785" s="0" t="s">
-        <v>1128</v>
+        <v>3124</v>
       </c>
       <c r="L785" s="0" t="s">
         <v>22</v>
@@ -40421,19 +40442,19 @@
     </row>
     <row r="786">
       <c r="A786" s="0" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B786" s="0" t="s">
         <v>3121</v>
       </c>
-      <c r="B786" s="0" t="s">
-        <v>3122</v>
-      </c>
       <c r="C786" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D786" s="0" t="s">
-        <v>776</v>
+        <v>3126</v>
       </c>
       <c r="E786" s="0" t="s">
-        <v>777</v>
+        <v>3127</v>
       </c>
       <c r="F786" s="0" t="s">
         <v>14</v>
@@ -40448,10 +40469,10 @@
         <v>718</v>
       </c>
       <c r="J786" s="0" t="s">
-        <v>1051</v>
+        <v>986</v>
       </c>
       <c r="K786" s="0" t="s">
-        <v>3123</v>
+        <v>1128</v>
       </c>
       <c r="L786" s="0" t="s">
         <v>22</v>
@@ -40459,19 +40480,19 @@
     </row>
     <row r="787">
       <c r="A787" s="0" t="s">
-        <v>3124</v>
+        <v>3128</v>
       </c>
       <c r="B787" s="0" t="s">
-        <v>3125</v>
+        <v>3129</v>
       </c>
       <c r="C787" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D787" s="0" t="s">
-        <v>3126</v>
+        <v>776</v>
       </c>
       <c r="E787" s="0" t="s">
-        <v>3125</v>
+        <v>777</v>
       </c>
       <c r="F787" s="0" t="s">
         <v>14</v>
@@ -40486,10 +40507,10 @@
         <v>718</v>
       </c>
       <c r="J787" s="0" t="s">
-        <v>324</v>
+        <v>1051</v>
       </c>
       <c r="K787" s="0" t="s">
-        <v>3127</v>
+        <v>3130</v>
       </c>
       <c r="L787" s="0" t="s">
         <v>22</v>
@@ -40497,19 +40518,19 @@
     </row>
     <row r="788">
       <c r="A788" s="0" t="s">
-        <v>3128</v>
+        <v>3131</v>
       </c>
       <c r="B788" s="0" t="s">
-        <v>3129</v>
+        <v>3132</v>
       </c>
       <c r="C788" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D788" s="0" t="s">
-        <v>1515</v>
+        <v>3133</v>
       </c>
       <c r="E788" s="0" t="s">
-        <v>1516</v>
+        <v>3132</v>
       </c>
       <c r="F788" s="0" t="s">
         <v>14</v>
@@ -40524,10 +40545,10 @@
         <v>718</v>
       </c>
       <c r="J788" s="0" t="s">
-        <v>53</v>
+        <v>324</v>
       </c>
       <c r="K788" s="0" t="s">
-        <v>3130</v>
+        <v>3134</v>
       </c>
       <c r="L788" s="0" t="s">
         <v>22</v>
@@ -40535,19 +40556,19 @@
     </row>
     <row r="789">
       <c r="A789" s="0" t="s">
-        <v>3131</v>
+        <v>3135</v>
       </c>
       <c r="B789" s="0" t="s">
-        <v>3132</v>
+        <v>3136</v>
       </c>
       <c r="C789" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D789" s="0" t="s">
-        <v>3133</v>
+        <v>1515</v>
       </c>
       <c r="E789" s="0" t="s">
-        <v>3134</v>
+        <v>1516</v>
       </c>
       <c r="F789" s="0" t="s">
         <v>14</v>
@@ -40562,10 +40583,10 @@
         <v>718</v>
       </c>
       <c r="J789" s="0" t="s">
-        <v>206</v>
+        <v>53</v>
       </c>
       <c r="K789" s="0" t="s">
-        <v>3135</v>
+        <v>3137</v>
       </c>
       <c r="L789" s="0" t="s">
         <v>22</v>
@@ -40573,19 +40594,19 @@
     </row>
     <row r="790">
       <c r="A790" s="0" t="s">
-        <v>3136</v>
+        <v>3138</v>
       </c>
       <c r="B790" s="0" t="s">
-        <v>3137</v>
+        <v>3139</v>
       </c>
       <c r="C790" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D790" s="0" t="s">
-        <v>3138</v>
+        <v>3140</v>
       </c>
       <c r="E790" s="0" t="s">
-        <v>3139</v>
+        <v>3141</v>
       </c>
       <c r="F790" s="0" t="s">
         <v>14</v>
@@ -40600,10 +40621,10 @@
         <v>718</v>
       </c>
       <c r="J790" s="0" t="s">
-        <v>723</v>
+        <v>206</v>
       </c>
       <c r="K790" s="0" t="s">
-        <v>3140</v>
+        <v>3142</v>
       </c>
       <c r="L790" s="0" t="s">
         <v>22</v>
@@ -40611,19 +40632,19 @@
     </row>
     <row r="791">
       <c r="A791" s="0" t="s">
-        <v>3141</v>
+        <v>3143</v>
       </c>
       <c r="B791" s="0" t="s">
-        <v>3142</v>
+        <v>3144</v>
       </c>
       <c r="C791" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D791" s="0" t="s">
-        <v>3143</v>
+        <v>3145</v>
       </c>
       <c r="E791" s="0" t="s">
-        <v>3144</v>
+        <v>3146</v>
       </c>
       <c r="F791" s="0" t="s">
         <v>14</v>
@@ -40638,10 +40659,10 @@
         <v>718</v>
       </c>
       <c r="J791" s="0" t="s">
-        <v>417</v>
+        <v>723</v>
       </c>
       <c r="K791" s="0" t="s">
-        <v>3145</v>
+        <v>3147</v>
       </c>
       <c r="L791" s="0" t="s">
         <v>22</v>
@@ -40649,19 +40670,19 @@
     </row>
     <row r="792">
       <c r="A792" s="0" t="s">
-        <v>3146</v>
+        <v>3148</v>
       </c>
       <c r="B792" s="0" t="s">
-        <v>3147</v>
+        <v>3149</v>
       </c>
       <c r="C792" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D792" s="0" t="s">
-        <v>3148</v>
+        <v>3150</v>
       </c>
       <c r="E792" s="0" t="s">
-        <v>3149</v>
+        <v>3151</v>
       </c>
       <c r="F792" s="0" t="s">
         <v>14</v>
@@ -40676,10 +40697,10 @@
         <v>718</v>
       </c>
       <c r="J792" s="0" t="s">
-        <v>522</v>
+        <v>417</v>
       </c>
       <c r="K792" s="0" t="s">
-        <v>3150</v>
+        <v>3152</v>
       </c>
       <c r="L792" s="0" t="s">
         <v>22</v>
@@ -40687,19 +40708,19 @@
     </row>
     <row r="793">
       <c r="A793" s="0" t="s">
-        <v>3151</v>
+        <v>3153</v>
       </c>
       <c r="B793" s="0" t="s">
-        <v>3152</v>
+        <v>3154</v>
       </c>
       <c r="C793" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D793" s="0" t="s">
-        <v>3153</v>
+        <v>3155</v>
       </c>
       <c r="E793" s="0" t="s">
-        <v>3154</v>
+        <v>3156</v>
       </c>
       <c r="F793" s="0" t="s">
         <v>14</v>
@@ -40711,13 +40732,13 @@
         <v>18</v>
       </c>
       <c r="I793" s="0" t="s">
-        <v>52</v>
+        <v>718</v>
       </c>
       <c r="J793" s="0" t="s">
         <v>522</v>
       </c>
       <c r="K793" s="0" t="s">
-        <v>3155</v>
+        <v>3157</v>
       </c>
       <c r="L793" s="0" t="s">
         <v>22</v>
@@ -40725,19 +40746,19 @@
     </row>
     <row r="794">
       <c r="A794" s="0" t="s">
-        <v>3156</v>
+        <v>3158</v>
       </c>
       <c r="B794" s="0" t="s">
-        <v>3157</v>
+        <v>3159</v>
       </c>
       <c r="C794" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D794" s="0" t="s">
-        <v>546</v>
+        <v>3160</v>
       </c>
       <c r="E794" s="0" t="s">
-        <v>547</v>
+        <v>3161</v>
       </c>
       <c r="F794" s="0" t="s">
         <v>14</v>
@@ -40749,13 +40770,13 @@
         <v>18</v>
       </c>
       <c r="I794" s="0" t="s">
-        <v>508</v>
+        <v>52</v>
       </c>
       <c r="J794" s="0" t="s">
-        <v>99</v>
+        <v>522</v>
       </c>
       <c r="K794" s="0" t="s">
-        <v>516</v>
+        <v>3162</v>
       </c>
       <c r="L794" s="0" t="s">
         <v>22</v>
@@ -40763,19 +40784,19 @@
     </row>
     <row r="795">
       <c r="A795" s="0" t="s">
-        <v>3158</v>
+        <v>3163</v>
       </c>
       <c r="B795" s="0" t="s">
-        <v>3159</v>
+        <v>3164</v>
       </c>
       <c r="C795" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D795" s="0" t="s">
-        <v>3023</v>
+        <v>546</v>
       </c>
       <c r="E795" s="0" t="s">
-        <v>3024</v>
+        <v>547</v>
       </c>
       <c r="F795" s="0" t="s">
         <v>14</v>
@@ -40787,13 +40808,13 @@
         <v>18</v>
       </c>
       <c r="I795" s="0" t="s">
-        <v>112</v>
+        <v>508</v>
       </c>
       <c r="J795" s="0" t="s">
         <v>99</v>
       </c>
       <c r="K795" s="0" t="s">
-        <v>3160</v>
+        <v>516</v>
       </c>
       <c r="L795" s="0" t="s">
         <v>22</v>
@@ -40801,37 +40822,37 @@
     </row>
     <row r="796">
       <c r="A796" s="0" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="B796" s="0" t="s">
-        <v>3162</v>
+        <v>3166</v>
       </c>
       <c r="C796" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D796" s="0" t="s">
-        <v>3163</v>
+        <v>3030</v>
       </c>
       <c r="E796" s="0" t="s">
-        <v>3164</v>
+        <v>3031</v>
       </c>
       <c r="F796" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G796" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H796" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I796" s="0" t="s">
-        <v>1706</v>
+        <v>112</v>
       </c>
       <c r="J796" s="0" t="s">
-        <v>818</v>
+        <v>99</v>
       </c>
       <c r="K796" s="0" t="s">
-        <v>819</v>
+        <v>3167</v>
       </c>
       <c r="L796" s="0" t="s">
         <v>22</v>
@@ -40839,37 +40860,37 @@
     </row>
     <row r="797">
       <c r="A797" s="0" t="s">
-        <v>3165</v>
+        <v>3168</v>
       </c>
       <c r="B797" s="0" t="s">
-        <v>3166</v>
+        <v>3169</v>
       </c>
       <c r="C797" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D797" s="0" t="s">
-        <v>3167</v>
+        <v>3170</v>
       </c>
       <c r="E797" s="0" t="s">
-        <v>3168</v>
+        <v>3171</v>
       </c>
       <c r="F797" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G797" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H797" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I797" s="0" t="s">
-        <v>85</v>
+        <v>1706</v>
       </c>
       <c r="J797" s="0" t="s">
-        <v>113</v>
+        <v>818</v>
       </c>
       <c r="K797" s="0" t="s">
-        <v>29</v>
+        <v>819</v>
       </c>
       <c r="L797" s="0" t="s">
         <v>22</v>
@@ -40877,19 +40898,19 @@
     </row>
     <row r="798">
       <c r="A798" s="0" t="s">
-        <v>3169</v>
+        <v>3172</v>
       </c>
       <c r="B798" s="0" t="s">
-        <v>3170</v>
+        <v>3173</v>
       </c>
       <c r="C798" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D798" s="0" t="s">
-        <v>3171</v>
+        <v>3174</v>
       </c>
       <c r="E798" s="0" t="s">
-        <v>3172</v>
+        <v>3175</v>
       </c>
       <c r="F798" s="0" t="s">
         <v>14</v>
@@ -40901,13 +40922,13 @@
         <v>18</v>
       </c>
       <c r="I798" s="0" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J798" s="0" t="s">
-        <v>256</v>
+        <v>113</v>
       </c>
       <c r="K798" s="0" t="s">
-        <v>3173</v>
+        <v>29</v>
       </c>
       <c r="L798" s="0" t="s">
         <v>22</v>
@@ -40915,19 +40936,19 @@
     </row>
     <row r="799">
       <c r="A799" s="0" t="s">
-        <v>3174</v>
+        <v>3176</v>
       </c>
       <c r="B799" s="0" t="s">
-        <v>3175</v>
+        <v>3177</v>
       </c>
       <c r="C799" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D799" s="0" t="s">
-        <v>3176</v>
+        <v>3178</v>
       </c>
       <c r="E799" s="0" t="s">
-        <v>3177</v>
+        <v>3179</v>
       </c>
       <c r="F799" s="0" t="s">
         <v>14</v>
@@ -40939,13 +40960,13 @@
         <v>18</v>
       </c>
       <c r="I799" s="0" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="J799" s="0" t="s">
-        <v>2879</v>
+        <v>256</v>
       </c>
       <c r="K799" s="0" t="s">
-        <v>2880</v>
+        <v>3180</v>
       </c>
       <c r="L799" s="0" t="s">
         <v>22</v>
@@ -40953,19 +40974,19 @@
     </row>
     <row r="800">
       <c r="A800" s="0" t="s">
-        <v>3178</v>
+        <v>3181</v>
       </c>
       <c r="B800" s="0" t="s">
-        <v>3179</v>
+        <v>3182</v>
       </c>
       <c r="C800" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D800" s="0" t="s">
-        <v>2938</v>
+        <v>3183</v>
       </c>
       <c r="E800" s="0" t="s">
-        <v>2939</v>
+        <v>3184</v>
       </c>
       <c r="F800" s="0" t="s">
         <v>14</v>
@@ -40977,13 +40998,13 @@
         <v>18</v>
       </c>
       <c r="I800" s="0" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="J800" s="0" t="s">
-        <v>53</v>
+        <v>2886</v>
       </c>
       <c r="K800" s="0" t="s">
-        <v>2843</v>
+        <v>2887</v>
       </c>
       <c r="L800" s="0" t="s">
         <v>22</v>
@@ -40991,19 +41012,19 @@
     </row>
     <row r="801">
       <c r="A801" s="0" t="s">
-        <v>3180</v>
+        <v>3185</v>
       </c>
       <c r="B801" s="0" t="s">
-        <v>3181</v>
+        <v>3186</v>
       </c>
       <c r="C801" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D801" s="0" t="s">
-        <v>3182</v>
+        <v>2945</v>
       </c>
       <c r="E801" s="0" t="s">
-        <v>3183</v>
+        <v>2946</v>
       </c>
       <c r="F801" s="0" t="s">
         <v>14</v>
@@ -41015,13 +41036,13 @@
         <v>18</v>
       </c>
       <c r="I801" s="0" t="s">
-        <v>323</v>
+        <v>67</v>
       </c>
       <c r="J801" s="0" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="K801" s="0" t="s">
-        <v>29</v>
+        <v>2850</v>
       </c>
       <c r="L801" s="0" t="s">
         <v>22</v>
@@ -41029,19 +41050,19 @@
     </row>
     <row r="802">
       <c r="A802" s="0" t="s">
-        <v>3184</v>
+        <v>3187</v>
       </c>
       <c r="B802" s="0" t="s">
-        <v>3185</v>
+        <v>3188</v>
       </c>
       <c r="C802" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D802" s="0" t="s">
-        <v>3186</v>
+        <v>3189</v>
       </c>
       <c r="E802" s="0" t="s">
-        <v>3187</v>
+        <v>3190</v>
       </c>
       <c r="F802" s="0" t="s">
         <v>14</v>
@@ -41053,7 +41074,7 @@
         <v>18</v>
       </c>
       <c r="I802" s="0" t="s">
-        <v>67</v>
+        <v>323</v>
       </c>
       <c r="J802" s="0" t="s">
         <v>113</v>
@@ -41067,19 +41088,19 @@
     </row>
     <row r="803">
       <c r="A803" s="0" t="s">
-        <v>3188</v>
+        <v>3191</v>
       </c>
       <c r="B803" s="0" t="s">
-        <v>3189</v>
+        <v>3192</v>
       </c>
       <c r="C803" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D803" s="0" t="s">
-        <v>3190</v>
+        <v>3193</v>
       </c>
       <c r="E803" s="0" t="s">
-        <v>3191</v>
+        <v>3194</v>
       </c>
       <c r="F803" s="0" t="s">
         <v>14</v>
@@ -41091,13 +41112,13 @@
         <v>18</v>
       </c>
       <c r="I803" s="0" t="s">
-        <v>323</v>
+        <v>67</v>
       </c>
       <c r="J803" s="0" t="s">
-        <v>476</v>
+        <v>113</v>
       </c>
       <c r="K803" s="0" t="s">
-        <v>2067</v>
+        <v>29</v>
       </c>
       <c r="L803" s="0" t="s">
         <v>22</v>
@@ -41105,19 +41126,19 @@
     </row>
     <row r="804">
       <c r="A804" s="0" t="s">
-        <v>3192</v>
+        <v>3195</v>
       </c>
       <c r="B804" s="0" t="s">
-        <v>3189</v>
+        <v>3196</v>
       </c>
       <c r="C804" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D804" s="0" t="s">
-        <v>3193</v>
+        <v>3197</v>
       </c>
       <c r="E804" s="0" t="s">
-        <v>3194</v>
+        <v>3198</v>
       </c>
       <c r="F804" s="0" t="s">
         <v>14</v>
@@ -41129,13 +41150,13 @@
         <v>18</v>
       </c>
       <c r="I804" s="0" t="s">
-        <v>67</v>
+        <v>323</v>
       </c>
       <c r="J804" s="0" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="K804" s="0" t="s">
-        <v>748</v>
+        <v>2067</v>
       </c>
       <c r="L804" s="0" t="s">
         <v>22</v>
@@ -41143,7 +41164,7 @@
     </row>
     <row r="805">
       <c r="A805" s="0" t="s">
-        <v>3195</v>
+        <v>3199</v>
       </c>
       <c r="B805" s="0" t="s">
         <v>3196</v>
@@ -41152,10 +41173,10 @@
         <v>14</v>
       </c>
       <c r="D805" s="0" t="s">
-        <v>3197</v>
+        <v>3200</v>
       </c>
       <c r="E805" s="0" t="s">
-        <v>3198</v>
+        <v>3201</v>
       </c>
       <c r="F805" s="0" t="s">
         <v>14</v>
@@ -41167,13 +41188,13 @@
         <v>18</v>
       </c>
       <c r="I805" s="0" t="s">
-        <v>1410</v>
+        <v>67</v>
       </c>
       <c r="J805" s="0" t="s">
-        <v>118</v>
+        <v>492</v>
       </c>
       <c r="K805" s="0" t="s">
-        <v>274</v>
+        <v>748</v>
       </c>
       <c r="L805" s="0" t="s">
         <v>22</v>
@@ -41181,19 +41202,19 @@
     </row>
     <row r="806">
       <c r="A806" s="0" t="s">
-        <v>3199</v>
+        <v>3202</v>
       </c>
       <c r="B806" s="0" t="s">
-        <v>3196</v>
+        <v>3203</v>
       </c>
       <c r="C806" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D806" s="0" t="s">
-        <v>3197</v>
+        <v>3204</v>
       </c>
       <c r="E806" s="0" t="s">
-        <v>3198</v>
+        <v>3205</v>
       </c>
       <c r="F806" s="0" t="s">
         <v>14</v>
@@ -41205,7 +41226,7 @@
         <v>18</v>
       </c>
       <c r="I806" s="0" t="s">
-        <v>883</v>
+        <v>1410</v>
       </c>
       <c r="J806" s="0" t="s">
         <v>118</v>
@@ -41219,19 +41240,19 @@
     </row>
     <row r="807">
       <c r="A807" s="0" t="s">
-        <v>3200</v>
+        <v>3206</v>
       </c>
       <c r="B807" s="0" t="s">
-        <v>3201</v>
+        <v>3203</v>
       </c>
       <c r="C807" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D807" s="0" t="s">
-        <v>3202</v>
+        <v>3204</v>
       </c>
       <c r="E807" s="0" t="s">
-        <v>3203</v>
+        <v>3205</v>
       </c>
       <c r="F807" s="0" t="s">
         <v>14</v>
@@ -41243,13 +41264,13 @@
         <v>18</v>
       </c>
       <c r="I807" s="0" t="s">
-        <v>78</v>
+        <v>883</v>
       </c>
       <c r="J807" s="0" t="s">
-        <v>1815</v>
+        <v>118</v>
       </c>
       <c r="K807" s="0" t="s">
-        <v>3204</v>
+        <v>274</v>
       </c>
       <c r="L807" s="0" t="s">
         <v>22</v>
@@ -41257,19 +41278,19 @@
     </row>
     <row r="808">
       <c r="A808" s="0" t="s">
-        <v>3205</v>
+        <v>3207</v>
       </c>
       <c r="B808" s="0" t="s">
-        <v>3206</v>
+        <v>3208</v>
       </c>
       <c r="C808" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D808" s="0" t="s">
-        <v>3207</v>
+        <v>3209</v>
       </c>
       <c r="E808" s="0" t="s">
-        <v>3208</v>
+        <v>3210</v>
       </c>
       <c r="F808" s="0" t="s">
         <v>14</v>
@@ -41284,10 +41305,10 @@
         <v>78</v>
       </c>
       <c r="J808" s="0" t="s">
-        <v>412</v>
+        <v>1815</v>
       </c>
       <c r="K808" s="0" t="s">
-        <v>3209</v>
+        <v>3211</v>
       </c>
       <c r="L808" s="0" t="s">
         <v>22</v>
@@ -41295,19 +41316,19 @@
     </row>
     <row r="809">
       <c r="A809" s="0" t="s">
-        <v>3210</v>
+        <v>3212</v>
       </c>
       <c r="B809" s="0" t="s">
-        <v>3211</v>
+        <v>3213</v>
       </c>
       <c r="C809" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D809" s="0" t="s">
-        <v>3003</v>
+        <v>3214</v>
       </c>
       <c r="E809" s="0" t="s">
-        <v>3004</v>
+        <v>3215</v>
       </c>
       <c r="F809" s="0" t="s">
         <v>14</v>
@@ -41319,13 +41340,13 @@
         <v>18</v>
       </c>
       <c r="I809" s="0" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="J809" s="0" t="s">
-        <v>46</v>
+        <v>412</v>
       </c>
       <c r="K809" s="0" t="s">
-        <v>3212</v>
+        <v>3216</v>
       </c>
       <c r="L809" s="0" t="s">
         <v>22</v>
@@ -41333,19 +41354,19 @@
     </row>
     <row r="810">
       <c r="A810" s="0" t="s">
-        <v>3213</v>
+        <v>3217</v>
       </c>
       <c r="B810" s="0" t="s">
-        <v>3214</v>
+        <v>3218</v>
       </c>
       <c r="C810" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D810" s="0" t="s">
-        <v>3215</v>
+        <v>3010</v>
       </c>
       <c r="E810" s="0" t="s">
-        <v>3216</v>
+        <v>3011</v>
       </c>
       <c r="F810" s="0" t="s">
         <v>14</v>
@@ -41357,13 +41378,13 @@
         <v>18</v>
       </c>
       <c r="I810" s="0" t="s">
-        <v>390</v>
+        <v>112</v>
       </c>
       <c r="J810" s="0" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="K810" s="0" t="s">
-        <v>62</v>
+        <v>3219</v>
       </c>
       <c r="L810" s="0" t="s">
         <v>22</v>
@@ -41371,37 +41392,37 @@
     </row>
     <row r="811">
       <c r="A811" s="0" t="s">
-        <v>3217</v>
+        <v>3220</v>
       </c>
       <c r="B811" s="0" t="s">
-        <v>3218</v>
+        <v>3221</v>
       </c>
       <c r="C811" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D811" s="0" t="s">
-        <v>3219</v>
+        <v>3222</v>
       </c>
       <c r="E811" s="0" t="s">
-        <v>3218</v>
+        <v>3223</v>
       </c>
       <c r="F811" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G811" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H811" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I811" s="0" t="s">
-        <v>3220</v>
+        <v>390</v>
       </c>
       <c r="J811" s="0" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="K811" s="0" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="L811" s="0" t="s">
         <v>22</v>
@@ -41409,37 +41430,37 @@
     </row>
     <row r="812">
       <c r="A812" s="0" t="s">
-        <v>3221</v>
+        <v>3224</v>
       </c>
       <c r="B812" s="0" t="s">
-        <v>3222</v>
+        <v>3225</v>
       </c>
       <c r="C812" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D812" s="0" t="s">
-        <v>3223</v>
+        <v>3226</v>
       </c>
       <c r="E812" s="0" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
       <c r="F812" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G812" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H812" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I812" s="0" t="s">
-        <v>133</v>
+        <v>3227</v>
       </c>
       <c r="J812" s="0" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="K812" s="0" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="L812" s="0" t="s">
         <v>22</v>
@@ -41447,19 +41468,19 @@
     </row>
     <row r="813">
       <c r="A813" s="0" t="s">
-        <v>3225</v>
+        <v>3228</v>
       </c>
       <c r="B813" s="0" t="s">
-        <v>3222</v>
+        <v>3229</v>
       </c>
       <c r="C813" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D813" s="0" t="s">
-        <v>3223</v>
+        <v>3230</v>
       </c>
       <c r="E813" s="0" t="s">
-        <v>3224</v>
+        <v>3231</v>
       </c>
       <c r="F813" s="0" t="s">
         <v>14</v>
@@ -41471,7 +41492,7 @@
         <v>18</v>
       </c>
       <c r="I813" s="0" t="s">
-        <v>612</v>
+        <v>133</v>
       </c>
       <c r="J813" s="0" t="s">
         <v>61</v>
@@ -41485,19 +41506,19 @@
     </row>
     <row r="814">
       <c r="A814" s="0" t="s">
-        <v>3226</v>
+        <v>3232</v>
       </c>
       <c r="B814" s="0" t="s">
-        <v>3227</v>
+        <v>3229</v>
       </c>
       <c r="C814" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D814" s="0" t="s">
-        <v>3228</v>
+        <v>3230</v>
       </c>
       <c r="E814" s="0" t="s">
-        <v>3229</v>
+        <v>3231</v>
       </c>
       <c r="F814" s="0" t="s">
         <v>14</v>
@@ -41509,13 +41530,13 @@
         <v>18</v>
       </c>
       <c r="I814" s="0" t="s">
-        <v>416</v>
+        <v>612</v>
       </c>
       <c r="J814" s="0" t="s">
-        <v>492</v>
+        <v>61</v>
       </c>
       <c r="K814" s="0" t="s">
-        <v>3230</v>
+        <v>62</v>
       </c>
       <c r="L814" s="0" t="s">
         <v>22</v>
@@ -41523,19 +41544,19 @@
     </row>
     <row r="815">
       <c r="A815" s="0" t="s">
-        <v>3231</v>
+        <v>3233</v>
       </c>
       <c r="B815" s="0" t="s">
-        <v>3232</v>
+        <v>3234</v>
       </c>
       <c r="C815" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D815" s="0" t="s">
-        <v>3233</v>
+        <v>3235</v>
       </c>
       <c r="E815" s="0" t="s">
-        <v>3234</v>
+        <v>3236</v>
       </c>
       <c r="F815" s="0" t="s">
         <v>14</v>
@@ -41547,13 +41568,13 @@
         <v>18</v>
       </c>
       <c r="I815" s="0" t="s">
-        <v>285</v>
+        <v>416</v>
       </c>
       <c r="J815" s="0" t="s">
-        <v>2812</v>
+        <v>492</v>
       </c>
       <c r="K815" s="0" t="s">
-        <v>3235</v>
+        <v>3237</v>
       </c>
       <c r="L815" s="0" t="s">
         <v>22</v>
@@ -41561,37 +41582,37 @@
     </row>
     <row r="816">
       <c r="A816" s="0" t="s">
-        <v>3236</v>
+        <v>3238</v>
       </c>
       <c r="B816" s="0" t="s">
-        <v>3237</v>
+        <v>3239</v>
       </c>
       <c r="C816" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D816" s="0" t="s">
-        <v>3238</v>
+        <v>3240</v>
       </c>
       <c r="E816" s="0" t="s">
-        <v>3237</v>
+        <v>3241</v>
       </c>
       <c r="F816" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G816" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H816" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I816" s="0" t="s">
-        <v>3239</v>
+        <v>285</v>
       </c>
       <c r="J816" s="0" t="s">
-        <v>28</v>
+        <v>2819</v>
       </c>
       <c r="K816" s="0" t="s">
-        <v>29</v>
+        <v>3242</v>
       </c>
       <c r="L816" s="0" t="s">
         <v>22</v>
@@ -41599,19 +41620,19 @@
     </row>
     <row r="817">
       <c r="A817" s="0" t="s">
-        <v>3240</v>
+        <v>3243</v>
       </c>
       <c r="B817" s="0" t="s">
-        <v>3241</v>
+        <v>3244</v>
       </c>
       <c r="C817" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D817" s="0" t="s">
-        <v>3242</v>
+        <v>3245</v>
       </c>
       <c r="E817" s="0" t="s">
-        <v>3241</v>
+        <v>3244</v>
       </c>
       <c r="F817" s="0" t="s">
         <v>14</v>
@@ -41623,7 +41644,7 @@
         <v>18</v>
       </c>
       <c r="I817" s="0" t="s">
-        <v>3243</v>
+        <v>3246</v>
       </c>
       <c r="J817" s="0" t="s">
         <v>28</v>
@@ -41637,37 +41658,37 @@
     </row>
     <row r="818">
       <c r="A818" s="0" t="s">
-        <v>3244</v>
+        <v>3247</v>
       </c>
       <c r="B818" s="0" t="s">
-        <v>3245</v>
+        <v>3248</v>
       </c>
       <c r="C818" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D818" s="0" t="s">
-        <v>3246</v>
+        <v>3249</v>
       </c>
       <c r="E818" s="0" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="F818" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G818" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H818" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I818" s="0" t="s">
-        <v>694</v>
+        <v>3250</v>
       </c>
       <c r="J818" s="0" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="K818" s="0" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L818" s="0" t="s">
         <v>22</v>
@@ -41675,37 +41696,37 @@
     </row>
     <row r="819">
       <c r="A819" s="0" t="s">
-        <v>3248</v>
+        <v>3251</v>
       </c>
       <c r="B819" s="0" t="s">
-        <v>3249</v>
+        <v>3252</v>
       </c>
       <c r="C819" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D819" s="0" t="s">
-        <v>3250</v>
+        <v>3253</v>
       </c>
       <c r="E819" s="0" t="s">
-        <v>3251</v>
+        <v>3254</v>
       </c>
       <c r="F819" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G819" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H819" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I819" s="0" t="s">
-        <v>3252</v>
+        <v>694</v>
       </c>
       <c r="J819" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="K819" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L819" s="0" t="s">
         <v>22</v>
@@ -41713,37 +41734,37 @@
     </row>
     <row r="820">
       <c r="A820" s="0" t="s">
-        <v>3253</v>
+        <v>3255</v>
       </c>
       <c r="B820" s="0" t="s">
-        <v>3254</v>
+        <v>3256</v>
       </c>
       <c r="C820" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D820" s="0" t="s">
-        <v>3255</v>
+        <v>3257</v>
       </c>
       <c r="E820" s="0" t="s">
-        <v>3256</v>
+        <v>3258</v>
       </c>
       <c r="F820" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G820" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H820" s="0" t="s">
         <v>18</v>
       </c>
       <c r="I820" s="0" t="s">
-        <v>530</v>
+        <v>3259</v>
       </c>
       <c r="J820" s="0" t="s">
-        <v>2128</v>
+        <v>28</v>
       </c>
       <c r="K820" s="0" t="s">
-        <v>3257</v>
+        <v>29</v>
       </c>
       <c r="L820" s="0" t="s">
         <v>22</v>
@@ -41751,19 +41772,19 @@
     </row>
     <row r="821">
       <c r="A821" s="0" t="s">
-        <v>3258</v>
+        <v>3260</v>
       </c>
       <c r="B821" s="0" t="s">
-        <v>3254</v>
+        <v>3261</v>
       </c>
       <c r="C821" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D821" s="0" t="s">
-        <v>3259</v>
+        <v>3262</v>
       </c>
       <c r="E821" s="0" t="s">
-        <v>3260</v>
+        <v>3263</v>
       </c>
       <c r="F821" s="0" t="s">
         <v>14</v>
@@ -41775,13 +41796,13 @@
         <v>18</v>
       </c>
       <c r="I821" s="0" t="s">
-        <v>815</v>
+        <v>530</v>
       </c>
       <c r="J821" s="0" t="s">
-        <v>46</v>
+        <v>2128</v>
       </c>
       <c r="K821" s="0" t="s">
-        <v>47</v>
+        <v>3264</v>
       </c>
       <c r="L821" s="0" t="s">
         <v>22</v>
@@ -41789,19 +41810,19 @@
     </row>
     <row r="822">
       <c r="A822" s="0" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B822" s="0" t="s">
         <v>3261</v>
       </c>
-      <c r="B822" s="0" t="s">
-        <v>3262</v>
-      </c>
       <c r="C822" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D822" s="0" t="s">
-        <v>3263</v>
+        <v>3266</v>
       </c>
       <c r="E822" s="0" t="s">
-        <v>3264</v>
+        <v>3267</v>
       </c>
       <c r="F822" s="0" t="s">
         <v>14</v>
@@ -41813,13 +41834,13 @@
         <v>18</v>
       </c>
       <c r="I822" s="0" t="s">
-        <v>193</v>
+        <v>815</v>
       </c>
       <c r="J822" s="0" t="s">
-        <v>794</v>
+        <v>46</v>
       </c>
       <c r="K822" s="0" t="s">
-        <v>795</v>
+        <v>47</v>
       </c>
       <c r="L822" s="0" t="s">
         <v>22</v>
@@ -41827,19 +41848,19 @@
     </row>
     <row r="823">
       <c r="A823" s="0" t="s">
-        <v>3265</v>
+        <v>3268</v>
       </c>
       <c r="B823" s="0" t="s">
-        <v>3266</v>
+        <v>3269</v>
       </c>
       <c r="C823" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D823" s="0" t="s">
-        <v>3267</v>
+        <v>3270</v>
       </c>
       <c r="E823" s="0" t="s">
-        <v>3266</v>
+        <v>3271</v>
       </c>
       <c r="F823" s="0" t="s">
         <v>14</v>
@@ -41851,33 +41872,33 @@
         <v>18</v>
       </c>
       <c r="I823" s="0" t="s">
-        <v>805</v>
+        <v>193</v>
       </c>
       <c r="J823" s="0" t="s">
-        <v>2037</v>
+        <v>794</v>
       </c>
       <c r="K823" s="0" t="s">
-        <v>3268</v>
+        <v>795</v>
       </c>
       <c r="L823" s="0" t="s">
-        <v>1145</v>
+        <v>22</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="0" t="s">
-        <v>3269</v>
+        <v>3272</v>
       </c>
       <c r="B824" s="0" t="s">
-        <v>3266</v>
+        <v>3273</v>
       </c>
       <c r="C824" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D824" s="0" t="s">
-        <v>3270</v>
+        <v>3274</v>
       </c>
       <c r="E824" s="0" t="s">
-        <v>3271</v>
+        <v>3273</v>
       </c>
       <c r="F824" s="0" t="s">
         <v>14</v>
@@ -41889,21 +41910,21 @@
         <v>18</v>
       </c>
       <c r="I824" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="J824" s="0" t="s">
+        <v>2037</v>
+      </c>
+      <c r="K824" s="0" t="s">
+        <v>3275</v>
+      </c>
+      <c r="L824" s="0" t="s">
         <v>1145</v>
-      </c>
-      <c r="J824" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K824" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="L824" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="0" t="s">
-        <v>3272</v>
+        <v>3276</v>
       </c>
       <c r="B825" s="0" t="s">
         <v>3273</v>
@@ -41912,10 +41933,10 @@
         <v>14</v>
       </c>
       <c r="D825" s="0" t="s">
-        <v>3274</v>
+        <v>3277</v>
       </c>
       <c r="E825" s="0" t="s">
-        <v>3273</v>
+        <v>3278</v>
       </c>
       <c r="F825" s="0" t="s">
         <v>14</v>
@@ -41930,10 +41951,10 @@
         <v>1145</v>
       </c>
       <c r="J825" s="0" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="K825" s="0" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L825" s="0" t="s">
         <v>22</v>
@@ -41941,19 +41962,19 @@
     </row>
     <row r="826">
       <c r="A826" s="0" t="s">
-        <v>3275</v>
+        <v>3279</v>
       </c>
       <c r="B826" s="0" t="s">
-        <v>3276</v>
+        <v>3280</v>
       </c>
       <c r="C826" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D826" s="0" t="s">
-        <v>3277</v>
+        <v>3281</v>
       </c>
       <c r="E826" s="0" t="s">
-        <v>3276</v>
+        <v>3280</v>
       </c>
       <c r="F826" s="0" t="s">
         <v>14</v>
@@ -41968,10 +41989,10 @@
         <v>1145</v>
       </c>
       <c r="J826" s="0" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="K826" s="0" t="s">
-        <v>274</v>
+        <v>47</v>
       </c>
       <c r="L826" s="0" t="s">
         <v>22</v>
@@ -41979,19 +42000,19 @@
     </row>
     <row r="827">
       <c r="A827" s="0" t="s">
-        <v>3278</v>
+        <v>3282</v>
       </c>
       <c r="B827" s="0" t="s">
-        <v>3279</v>
+        <v>3283</v>
       </c>
       <c r="C827" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D827" s="0" t="s">
-        <v>3280</v>
+        <v>3284</v>
       </c>
       <c r="E827" s="0" t="s">
-        <v>3279</v>
+        <v>3283</v>
       </c>
       <c r="F827" s="0" t="s">
         <v>14</v>
@@ -42006,10 +42027,10 @@
         <v>1145</v>
       </c>
       <c r="J827" s="0" t="s">
-        <v>417</v>
+        <v>118</v>
       </c>
       <c r="K827" s="0" t="s">
-        <v>1809</v>
+        <v>274</v>
       </c>
       <c r="L827" s="0" t="s">
         <v>22</v>
@@ -42017,19 +42038,19 @@
     </row>
     <row r="828">
       <c r="A828" s="0" t="s">
-        <v>3281</v>
+        <v>3285</v>
       </c>
       <c r="B828" s="0" t="s">
-        <v>3282</v>
+        <v>3286</v>
       </c>
       <c r="C828" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D828" s="0" t="s">
-        <v>550</v>
+        <v>3287</v>
       </c>
       <c r="E828" s="0" t="s">
-        <v>551</v>
+        <v>3286</v>
       </c>
       <c r="F828" s="0" t="s">
         <v>14</v>
@@ -42041,13 +42062,13 @@
         <v>18</v>
       </c>
       <c r="I828" s="0" t="s">
-        <v>498</v>
+        <v>1145</v>
       </c>
       <c r="J828" s="0" t="s">
-        <v>99</v>
+        <v>417</v>
       </c>
       <c r="K828" s="0" t="s">
-        <v>516</v>
+        <v>1809</v>
       </c>
       <c r="L828" s="0" t="s">
         <v>22</v>
@@ -42055,10 +42076,10 @@
     </row>
     <row r="829">
       <c r="A829" s="0" t="s">
-        <v>3283</v>
+        <v>3288</v>
       </c>
       <c r="B829" s="0" t="s">
-        <v>3282</v>
+        <v>3289</v>
       </c>
       <c r="C829" s="0" t="s">
         <v>14</v>
@@ -42085,7 +42106,7 @@
         <v>99</v>
       </c>
       <c r="K829" s="0" t="s">
-        <v>3284</v>
+        <v>516</v>
       </c>
       <c r="L829" s="0" t="s">
         <v>22</v>
@@ -42093,19 +42114,19 @@
     </row>
     <row r="830">
       <c r="A830" s="0" t="s">
-        <v>3285</v>
+        <v>3290</v>
       </c>
       <c r="B830" s="0" t="s">
-        <v>3286</v>
+        <v>3289</v>
       </c>
       <c r="C830" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D830" s="0" t="s">
-        <v>3287</v>
+        <v>550</v>
       </c>
       <c r="E830" s="0" t="s">
-        <v>3286</v>
+        <v>551</v>
       </c>
       <c r="F830" s="0" t="s">
         <v>14</v>
@@ -42117,13 +42138,13 @@
         <v>18</v>
       </c>
       <c r="I830" s="0" t="s">
-        <v>273</v>
+        <v>498</v>
       </c>
       <c r="J830" s="0" t="s">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="K830" s="0" t="s">
-        <v>391</v>
+        <v>3291</v>
       </c>
       <c r="L830" s="0" t="s">
         <v>22</v>
@@ -42131,19 +42152,19 @@
     </row>
     <row r="831">
       <c r="A831" s="0" t="s">
-        <v>3288</v>
+        <v>3292</v>
       </c>
       <c r="B831" s="0" t="s">
-        <v>3289</v>
+        <v>3293</v>
       </c>
       <c r="C831" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D831" s="0" t="s">
-        <v>3290</v>
+        <v>3294</v>
       </c>
       <c r="E831" s="0" t="s">
-        <v>3289</v>
+        <v>3293</v>
       </c>
       <c r="F831" s="0" t="s">
         <v>14</v>
@@ -42158,10 +42179,10 @@
         <v>273</v>
       </c>
       <c r="J831" s="0" t="s">
-        <v>986</v>
+        <v>212</v>
       </c>
       <c r="K831" s="0" t="s">
-        <v>1070</v>
+        <v>391</v>
       </c>
       <c r="L831" s="0" t="s">
         <v>22</v>
@@ -42169,19 +42190,19 @@
     </row>
     <row r="832">
       <c r="A832" s="0" t="s">
-        <v>3291</v>
+        <v>3295</v>
       </c>
       <c r="B832" s="0" t="s">
-        <v>3292</v>
+        <v>3296</v>
       </c>
       <c r="C832" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D832" s="0" t="s">
-        <v>3293</v>
+        <v>3297</v>
       </c>
       <c r="E832" s="0" t="s">
-        <v>3292</v>
+        <v>3296</v>
       </c>
       <c r="F832" s="0" t="s">
         <v>14</v>
@@ -42196,10 +42217,10 @@
         <v>273</v>
       </c>
       <c r="J832" s="0" t="s">
-        <v>61</v>
+        <v>986</v>
       </c>
       <c r="K832" s="0" t="s">
-        <v>62</v>
+        <v>1070</v>
       </c>
       <c r="L832" s="0" t="s">
         <v>22</v>
@@ -42207,19 +42228,19 @@
     </row>
     <row r="833">
       <c r="A833" s="0" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="B833" s="0" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="C833" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D833" s="0" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
       <c r="E833" s="0" t="s">
-        <v>3297</v>
+        <v>3299</v>
       </c>
       <c r="F833" s="0" t="s">
         <v>14</v>
@@ -42231,13 +42252,13 @@
         <v>18</v>
       </c>
       <c r="I833" s="0" t="s">
-        <v>2461</v>
+        <v>273</v>
       </c>
       <c r="J833" s="0" t="s">
-        <v>1298</v>
+        <v>61</v>
       </c>
       <c r="K833" s="0" t="s">
-        <v>1761</v>
+        <v>62</v>
       </c>
       <c r="L833" s="0" t="s">
         <v>22</v>
@@ -42245,19 +42266,19 @@
     </row>
     <row r="834">
       <c r="A834" s="0" t="s">
-        <v>3298</v>
+        <v>3301</v>
       </c>
       <c r="B834" s="0" t="s">
-        <v>3299</v>
+        <v>3302</v>
       </c>
       <c r="C834" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D834" s="0" t="s">
-        <v>3300</v>
+        <v>3303</v>
       </c>
       <c r="E834" s="0" t="s">
-        <v>3301</v>
+        <v>3304</v>
       </c>
       <c r="F834" s="0" t="s">
         <v>14</v>
@@ -42272,10 +42293,10 @@
         <v>2461</v>
       </c>
       <c r="J834" s="0" t="s">
-        <v>1582</v>
+        <v>1298</v>
       </c>
       <c r="K834" s="0" t="s">
-        <v>3302</v>
+        <v>1761</v>
       </c>
       <c r="L834" s="0" t="s">
         <v>22</v>
@@ -42283,19 +42304,19 @@
     </row>
     <row r="835">
       <c r="A835" s="0" t="s">
-        <v>3303</v>
+        <v>3305</v>
       </c>
       <c r="B835" s="0" t="s">
-        <v>3304</v>
+        <v>3306</v>
       </c>
       <c r="C835" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D835" s="0" t="s">
-        <v>3305</v>
+        <v>3307</v>
       </c>
       <c r="E835" s="0" t="s">
-        <v>3306</v>
+        <v>3308</v>
       </c>
       <c r="F835" s="0" t="s">
         <v>14</v>
@@ -42310,12 +42331,50 @@
         <v>2461</v>
       </c>
       <c r="J835" s="0" t="s">
+        <v>1582</v>
+      </c>
+      <c r="K835" s="0" t="s">
+        <v>3309</v>
+      </c>
+      <c r="L835" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="0" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B836" s="0" t="s">
+        <v>3311</v>
+      </c>
+      <c r="C836" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D836" s="0" t="s">
+        <v>3312</v>
+      </c>
+      <c r="E836" s="0" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F836" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G836" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H836" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I836" s="0" t="s">
+        <v>2461</v>
+      </c>
+      <c r="J836" s="0" t="s">
         <v>834</v>
       </c>
-      <c r="K835" s="0" t="s">
-        <v>3307</v>
-      </c>
-      <c r="L835" s="0" t="s">
+      <c r="K836" s="0" t="s">
+        <v>3314</v>
+      </c>
+      <c r="L836" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -42370,7 +42429,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3308</v>
+        <v>3315</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -42423,7 +42482,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3308</v>
+        <v>3315</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -42443,7 +42502,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3309</v>
+        <v>3316</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>13</v>
@@ -42452,7 +42511,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>18</v>
@@ -42464,7 +42523,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>3311</v>
+        <v>3318</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>22</v>
@@ -42472,16 +42531,16 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3312</v>
+        <v>3319</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3313</v>
+        <v>3320</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>18</v>
@@ -42493,7 +42552,7 @@
         <v>53</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>3314</v>
+        <v>3321</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>22</v>
@@ -42501,7 +42560,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3315</v>
+        <v>3322</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>346</v>
@@ -42510,7 +42569,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>18</v>
@@ -42522,7 +42581,7 @@
         <v>350</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>3316</v>
+        <v>3323</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>22</v>
@@ -42530,16 +42589,16 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>3324</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>3325</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>3317</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>3318</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>3310</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>18</v>
@@ -42551,7 +42610,7 @@
         <v>492</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>3319</v>
+        <v>3326</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>22</v>
@@ -42559,16 +42618,16 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3320</v>
+        <v>3327</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3321</v>
+        <v>3328</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>18</v>
@@ -42580,7 +42639,7 @@
         <v>182</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>3322</v>
+        <v>3329</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>22</v>
@@ -42588,16 +42647,16 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3323</v>
+        <v>3330</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>3324</v>
+        <v>3331</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>18</v>
@@ -42609,7 +42668,7 @@
         <v>169</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>3325</v>
+        <v>3332</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>22</v>
@@ -42617,7 +42676,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3326</v>
+        <v>3333</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>495</v>
@@ -42626,7 +42685,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>18</v>
@@ -42638,7 +42697,7 @@
         <v>499</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>3327</v>
+        <v>3334</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>22</v>
@@ -42646,7 +42705,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3328</v>
+        <v>3335</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>519</v>
@@ -42655,7 +42714,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>18</v>
@@ -42667,7 +42726,7 @@
         <v>522</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>3329</v>
+        <v>3336</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>22</v>
@@ -42675,7 +42734,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3330</v>
+        <v>3337</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>519</v>
@@ -42684,7 +42743,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>18</v>
@@ -42696,7 +42755,7 @@
         <v>522</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>3329</v>
+        <v>3336</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>22</v>
@@ -42704,7 +42763,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3331</v>
+        <v>3338</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>854</v>
@@ -42713,7 +42772,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>18</v>
@@ -42725,7 +42784,7 @@
         <v>350</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>3332</v>
+        <v>3339</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>22</v>
@@ -42733,7 +42792,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3333</v>
+        <v>3340</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>854</v>
@@ -42742,7 +42801,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>18</v>
@@ -42754,7 +42813,7 @@
         <v>330</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>3334</v>
+        <v>3341</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>22</v>
@@ -42762,16 +42821,16 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3335</v>
+        <v>3342</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>3336</v>
+        <v>3343</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>18</v>
@@ -42791,16 +42850,16 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3337</v>
+        <v>3344</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>3338</v>
+        <v>3345</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>18</v>
@@ -42812,7 +42871,7 @@
         <v>2203</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>3339</v>
+        <v>3346</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>22</v>
@@ -42820,16 +42879,16 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3340</v>
+        <v>3347</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>3341</v>
+        <v>3348</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>18</v>
@@ -42849,16 +42908,16 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3342</v>
+        <v>3349</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>3341</v>
+        <v>3348</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>18</v>
@@ -42878,16 +42937,16 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3343</v>
+        <v>3350</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>3344</v>
+        <v>3351</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>18</v>
@@ -42899,7 +42958,7 @@
         <v>417</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>3345</v>
+        <v>3352</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>22</v>
@@ -42907,16 +42966,16 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3346</v>
+        <v>3353</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>3347</v>
+        <v>3354</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>18</v>
@@ -42928,7 +42987,7 @@
         <v>92</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>3348</v>
+        <v>3355</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>22</v>
@@ -42936,16 +42995,16 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3349</v>
+        <v>3356</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>3350</v>
+        <v>3357</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>18</v>
@@ -42957,7 +43016,7 @@
         <v>723</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>3351</v>
+        <v>3358</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>22</v>
@@ -42965,7 +43024,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3352</v>
+        <v>3359</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>1356</v>
@@ -42974,7 +43033,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>18</v>
@@ -42986,7 +43045,7 @@
         <v>1359</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>3353</v>
+        <v>3360</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>22</v>
@@ -42994,7 +43053,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3354</v>
+        <v>3361</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>1356</v>
@@ -43003,7 +43062,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>18</v>
@@ -43015,7 +43074,7 @@
         <v>1359</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>3355</v>
+        <v>3362</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>22</v>
@@ -43023,7 +43082,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3356</v>
+        <v>3363</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>1356</v>
@@ -43032,7 +43091,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>18</v>
@@ -43044,7 +43103,7 @@
         <v>1359</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>3355</v>
+        <v>3362</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>22</v>
@@ -43052,16 +43111,16 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3357</v>
+        <v>3364</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>3358</v>
+        <v>3365</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>18</v>
@@ -43070,10 +43129,10 @@
         <v>193</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>3359</v>
+        <v>3366</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>3360</v>
+        <v>3367</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>22</v>
@@ -43081,16 +43140,16 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3361</v>
+        <v>3368</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>3358</v>
+        <v>3365</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>18</v>
@@ -43099,10 +43158,10 @@
         <v>205</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>2897</v>
+        <v>2904</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>3362</v>
+        <v>3369</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>22</v>
@@ -43110,16 +43169,16 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3363</v>
+        <v>3370</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>3358</v>
+        <v>3365</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>18</v>
@@ -43131,7 +43190,7 @@
         <v>476</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>3364</v>
+        <v>3371</v>
       </c>
       <c r="I25" s="0" t="s">
         <v>22</v>
@@ -43139,16 +43198,16 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>3365</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>3358</v>
-      </c>
       <c r="C26" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>18</v>
@@ -43160,7 +43219,7 @@
         <v>1432</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>3366</v>
+        <v>3373</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>22</v>
@@ -43168,16 +43227,16 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3367</v>
+        <v>3374</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>3358</v>
+        <v>3365</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>18</v>
@@ -43189,7 +43248,7 @@
         <v>768</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>3368</v>
+        <v>3375</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>22</v>
@@ -43197,16 +43256,16 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3369</v>
+        <v>3376</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>3358</v>
+        <v>3365</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>18</v>
@@ -43226,16 +43285,16 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3370</v>
+        <v>3377</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>3358</v>
+        <v>3365</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>18</v>
@@ -43255,16 +43314,16 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3371</v>
+        <v>3378</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>3372</v>
+        <v>3379</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>18</v>
@@ -43276,7 +43335,7 @@
         <v>522</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>3373</v>
+        <v>3380</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>22</v>
@@ -43284,16 +43343,16 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3374</v>
+        <v>3381</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>3375</v>
+        <v>3382</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>18</v>
@@ -43305,7 +43364,7 @@
         <v>2030</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>3376</v>
+        <v>3383</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>22</v>
@@ -43313,16 +43372,16 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3377</v>
+        <v>3384</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>3378</v>
+        <v>3385</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>18</v>
@@ -43331,10 +43390,10 @@
         <v>55</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>3379</v>
+        <v>3386</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>3380</v>
+        <v>3387</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>22</v>
@@ -43342,16 +43401,16 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3381</v>
+        <v>3388</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>3382</v>
+        <v>3389</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>18</v>
@@ -43363,7 +43422,7 @@
         <v>531</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>3383</v>
+        <v>3390</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>22</v>
@@ -43371,16 +43430,16 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>3384</v>
+        <v>3391</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>3385</v>
+        <v>3392</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>18</v>
@@ -43392,7 +43451,7 @@
         <v>99</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>3386</v>
+        <v>3393</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>22</v>
@@ -43400,16 +43459,16 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>3387</v>
+        <v>3394</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>3388</v>
+        <v>3395</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>18</v>
@@ -43421,7 +43480,7 @@
         <v>818</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>22</v>
@@ -43429,16 +43488,16 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>3390</v>
+        <v>3397</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>3391</v>
+        <v>3398</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>18</v>
@@ -43450,7 +43509,7 @@
         <v>35</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>3392</v>
+        <v>3399</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>22</v>
@@ -43458,16 +43517,16 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>3393</v>
+        <v>3400</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>3394</v>
+        <v>3401</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>18</v>
@@ -43479,7 +43538,7 @@
         <v>768</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>3395</v>
+        <v>3402</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>22</v>
@@ -43487,16 +43546,16 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>3396</v>
+        <v>3403</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>3397</v>
+        <v>3404</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>18</v>
@@ -43508,7 +43567,7 @@
         <v>256</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>3398</v>
+        <v>3405</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>22</v>
@@ -43516,16 +43575,16 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>3399</v>
+        <v>3406</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>3400</v>
+        <v>3407</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>18</v>
@@ -43537,7 +43596,7 @@
         <v>986</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>3401</v>
+        <v>3408</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>22</v>
@@ -43545,16 +43604,16 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>3402</v>
+        <v>3409</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>3403</v>
+        <v>3410</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>18</v>
@@ -43563,10 +43622,10 @@
         <v>55</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>3404</v>
+        <v>3411</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>3405</v>
+        <v>3412</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>22</v>
@@ -43574,16 +43633,16 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>3406</v>
+        <v>3413</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>3407</v>
+        <v>3414</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>18</v>
@@ -43595,7 +43654,7 @@
         <v>650</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>3408</v>
+        <v>3415</v>
       </c>
       <c r="I41" s="0" t="s">
         <v>22</v>
@@ -43603,16 +43662,16 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>3409</v>
+        <v>3416</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>3410</v>
+        <v>3417</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>18</v>
@@ -43624,7 +43683,7 @@
         <v>1081</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>3411</v>
+        <v>3418</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>22</v>
@@ -43632,16 +43691,16 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>3412</v>
+        <v>3419</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>3413</v>
+        <v>3420</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>18</v>
@@ -43653,7 +43712,7 @@
         <v>162</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>3414</v>
+        <v>3421</v>
       </c>
       <c r="I43" s="0" t="s">
         <v>2065</v>
@@ -43661,7 +43720,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>3415</v>
+        <v>3422</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>2455</v>
@@ -43670,7 +43729,7 @@
         <v>14</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>18</v>
@@ -43682,7 +43741,7 @@
         <v>522</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>3416</v>
+        <v>3423</v>
       </c>
       <c r="I44" s="0" t="s">
         <v>22</v>
@@ -43690,16 +43749,16 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>3417</v>
+        <v>3424</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>3418</v>
+        <v>3425</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>18</v>
@@ -43708,10 +43767,10 @@
         <v>55</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>3419</v>
+        <v>3426</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>3420</v>
+        <v>3427</v>
       </c>
       <c r="I45" s="0" t="s">
         <v>22</v>
@@ -43719,16 +43778,16 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>3421</v>
+        <v>3428</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>3422</v>
+        <v>3429</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>18</v>
@@ -43740,7 +43799,7 @@
         <v>412</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>3423</v>
+        <v>3430</v>
       </c>
       <c r="I46" s="0" t="s">
         <v>22</v>
@@ -43748,16 +43807,16 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>3424</v>
+        <v>3431</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>3425</v>
+        <v>3432</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>18</v>
@@ -43769,7 +43828,7 @@
         <v>61</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>3426</v>
+        <v>3433</v>
       </c>
       <c r="I47" s="0" t="s">
         <v>22</v>
@@ -43777,16 +43836,16 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>3427</v>
+        <v>3434</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>3428</v>
+        <v>3435</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>18</v>
@@ -43798,7 +43857,7 @@
         <v>1957</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>3429</v>
+        <v>3436</v>
       </c>
       <c r="I48" s="0" t="s">
         <v>22</v>
@@ -43806,16 +43865,16 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>3430</v>
+        <v>3437</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>3431</v>
+        <v>3438</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>18</v>
@@ -43827,7 +43886,7 @@
         <v>1815</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>3432</v>
+        <v>3439</v>
       </c>
       <c r="I49" s="0" t="s">
         <v>22</v>
@@ -43835,16 +43894,16 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>3433</v>
+        <v>3440</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>3434</v>
+        <v>3441</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>18</v>
@@ -43856,7 +43915,7 @@
         <v>46</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>3435</v>
+        <v>3442</v>
       </c>
       <c r="I50" s="0" t="s">
         <v>22</v>
@@ -43864,16 +43923,16 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>3436</v>
+        <v>3443</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>3437</v>
+        <v>3444</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>18</v>
@@ -43885,7 +43944,7 @@
         <v>206</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>3438</v>
+        <v>3445</v>
       </c>
       <c r="I51" s="0" t="s">
         <v>22</v>
@@ -43893,16 +43952,16 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>3439</v>
+        <v>3446</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>3440</v>
+        <v>3447</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>18</v>
@@ -43914,7 +43973,7 @@
         <v>1200</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>3441</v>
+        <v>3448</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>22</v>
@@ -43922,16 +43981,16 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>3442</v>
+        <v>3449</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>3443</v>
+        <v>3450</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>18</v>
@@ -43943,7 +44002,7 @@
         <v>212</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>3444</v>
+        <v>3451</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>22</v>
@@ -43951,16 +44010,16 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>3445</v>
+        <v>3452</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>3446</v>
+        <v>3453</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>18</v>
@@ -43972,7 +44031,7 @@
         <v>522</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>3447</v>
+        <v>3454</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>22</v>
@@ -43980,22 +44039,22 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>3448</v>
+        <v>3455</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>3449</v>
+        <v>3456</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>18</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>2679</v>
+        <v>2686</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>314</v>
@@ -44009,16 +44068,16 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>3450</v>
+        <v>3457</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>3451</v>
+        <v>3458</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>18</v>
@@ -44038,16 +44097,16 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>3452</v>
+        <v>3459</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>2873</v>
+        <v>2880</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>18</v>
@@ -44056,10 +44115,10 @@
         <v>19</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>2875</v>
+        <v>2882</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>3453</v>
+        <v>3460</v>
       </c>
       <c r="I57" s="0" t="s">
         <v>22</v>
@@ -44067,16 +44126,16 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>3454</v>
+        <v>3461</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>2878</v>
+        <v>2885</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>18</v>
@@ -44085,10 +44144,10 @@
         <v>349</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>2879</v>
+        <v>2886</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>3455</v>
+        <v>3462</v>
       </c>
       <c r="I58" s="0" t="s">
         <v>22</v>
@@ -44096,16 +44155,16 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>3456</v>
+        <v>3463</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>2983</v>
+        <v>2990</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>18</v>
@@ -44117,7 +44176,7 @@
         <v>53</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>3457</v>
+        <v>3464</v>
       </c>
       <c r="I59" s="0" t="s">
         <v>22</v>
@@ -44125,16 +44184,16 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>3458</v>
+        <v>3465</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>3459</v>
+        <v>3466</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>18</v>
@@ -44143,10 +44202,10 @@
         <v>349</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>3460</v>
+        <v>3467</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>3461</v>
+        <v>3468</v>
       </c>
       <c r="I60" s="0" t="s">
         <v>22</v>
@@ -44154,16 +44213,16 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>3462</v>
+        <v>3469</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>3459</v>
+        <v>3466</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>18</v>
@@ -44172,10 +44231,10 @@
         <v>525</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>3460</v>
+        <v>3467</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>3461</v>
+        <v>3468</v>
       </c>
       <c r="I61" s="0" t="s">
         <v>22</v>
@@ -44183,16 +44242,16 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>3463</v>
+        <v>3470</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>3175</v>
+        <v>3182</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>3310</v>
+        <v>3317</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>18</v>
@@ -44201,10 +44260,10 @@
         <v>19</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>2879</v>
+        <v>2886</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>3464</v>
+        <v>3471</v>
       </c>
       <c r="I62" s="0" t="s">
         <v>22</v>
@@ -44234,25 +44293,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>3465</v>
+        <v>3472</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3466</v>
+        <v>3473</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2988</v>
+        <v>2995</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3467</v>
+        <v>3474</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3468</v>
+        <v>3475</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3469</v>
+        <v>3476</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3470</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="2">
@@ -44260,10 +44319,10 @@
         <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3471</v>
+        <v>3478</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3472</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="3">
@@ -44271,10 +44330,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3473</v>
+        <v>3480</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>3472</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="4">
@@ -44282,10 +44341,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3474</v>
+        <v>3481</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>3472</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="5">
@@ -44293,10 +44352,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3475</v>
+        <v>3482</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>3472</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="6">
@@ -44304,10 +44363,10 @@
         <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3476</v>
+        <v>3483</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>3472</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="7">
@@ -44315,10 +44374,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>3477</v>
+        <v>3484</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>3472</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="8">
@@ -44326,10 +44385,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>3478</v>
+        <v>3485</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>3472</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="9">
@@ -44337,10 +44396,10 @@
         <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>3479</v>
+        <v>3486</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>3480</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="10">
@@ -44348,10 +44407,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>3481</v>
+        <v>3488</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>3480</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="11">
@@ -44359,10 +44418,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>3482</v>
+        <v>3489</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>3480</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="12">
@@ -44370,23 +44429,23 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>3483</v>
+        <v>3490</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>3480</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>3484</v>
+        <v>3491</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3485</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>3486</v>
+        <v>3493</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>18</v>
@@ -44394,31 +44453,31 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>3487</v>
+        <v>3494</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>3488</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>3489</v>
+        <v>3496</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>3488</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>3490</v>
+        <v>3497</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>3488</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>3491</v>
+        <v>3498</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>18</v>
@@ -44426,7 +44485,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>3492</v>
+        <v>3499</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>18</v>
@@ -44434,23 +44493,23 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>3493</v>
+        <v>3500</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>3494</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>3495</v>
+        <v>3502</v>
       </c>
       <c r="B25" s="0">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>3496</v>
+        <v>3503</v>
       </c>
       <c r="B26" s="0">
         <v>0</v>
@@ -44458,7 +44517,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>3497</v>
+        <v>3504</v>
       </c>
       <c r="B27" s="0">
         <v>0</v>
@@ -44466,7 +44525,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>3498</v>
+        <v>3505</v>
       </c>
       <c r="B28" s="0">
         <v>0</v>
@@ -44474,15 +44533,15 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>3499</v>
+        <v>3506</v>
       </c>
       <c r="B29" s="0">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>3500</v>
+        <v>3507</v>
       </c>
       <c r="B30" s="0">
         <v>61</v>
